--- a/SuppleMaterials.xlsx
+++ b/SuppleMaterials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnan/Downloads/Project/项目1-1-转录组数据分类/scKSFD/第2次投稿-Breifings_in_Bioinformatics模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnan/Documents/当前在研的所有项目/项目1-1-转录组数据分类/scKSFD/第3次投稿-PCB-20250501投稿/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578AA44D-0E39-6547-AC0B-B951CC72F288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE12E4F-4F06-5D45-8DE4-4B047DDCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2482E374-9C3D-F349-81DD-234A0420BFFA}"/>
+    <workbookView xWindow="1420" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2482E374-9C3D-F349-81DD-234A0420BFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_data_info" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="TableS4_client_number_effect" sheetId="4" r:id="rId4"/>
     <sheet name="TableS5_hard_soft" sheetId="8" r:id="rId5"/>
     <sheet name="TableS6_nonPriyPresM_compare" sheetId="9" r:id="rId6"/>
-    <sheet name="TableS7_client_number_runtime" sheetId="5" r:id="rId7"/>
-    <sheet name="TableS8_proxy_proportio_runtime" sheetId="10" r:id="rId8"/>
+    <sheet name="TableS7_proxy_proportio_runtime" sheetId="10" r:id="rId7"/>
+    <sheet name="TableS8_client_number_runtime" sheetId="5" r:id="rId8"/>
     <sheet name="TableS9_covid" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -702,19 +702,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Table S7: Runtime Comparison (different client numbers)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplementary Table S8: Runtime Comparison (different proxy sample proportions)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Local (K=5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Supplementary Table S9: Patient information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Table S8: Runtime Comparison (different client numbers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Table S7: Runtime Comparison (different proxy sample proportions)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +725,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="184" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="186" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -922,6 +922,24 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,49 +952,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1009,11 +989,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2185,42 +2165,42 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -2239,12 +2219,12 @@
       <c r="G3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="3" t="s">
@@ -2326,7 +2306,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="1"/>
+        <f>G5-E5</f>
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="L5" s="3">
@@ -4160,22 +4140,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1 K1 K4:K1048576 I4:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="H4:H45 J4:J45">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1 K1 I4:I1048576 K4:K1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I45 K4:K45">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H45 J4:J45">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4187,7 +4167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCF4D31-AC39-EF46-AE8E-9D138ABF97B3}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4212,32 +4194,32 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -4333,34 +4315,34 @@
       <c r="K4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="17">
         <v>1.3671875E-2</v>
       </c>
-      <c r="M4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R4" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="M4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R4" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S4" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="17">
         <v>0.10546875</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4398,34 +4380,34 @@
       <c r="K5" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="L5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P5" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S5" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T5" s="21">
+      <c r="Q5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T5" s="17">
         <v>0.322265625</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4463,34 +4445,34 @@
       <c r="K6" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="M6" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N6" s="21">
+      <c r="M6" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N6" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <v>1.3671875E-2</v>
       </c>
-      <c r="P6" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q6" s="21">
+      <c r="P6" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q6" s="17">
         <v>0.193359375</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="17">
         <v>2.734375E-2</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="17">
         <v>0.431640625</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="17">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -4528,34 +4510,34 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="M7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R7" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S7" s="21">
+      <c r="M7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S7" s="17">
         <v>1</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="17">
         <v>0.68309139830960874</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="17">
         <v>0.79860324550939066</v>
       </c>
     </row>
@@ -4593,34 +4575,34 @@
       <c r="K8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="17">
         <v>0.28008721081149762</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="17">
         <v>0.13735451952929029</v>
       </c>
-      <c r="N8" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O8" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="N8" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P8" s="17">
         <v>4.820698819057858E-3</v>
       </c>
-      <c r="Q8" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R8" s="21">
+      <c r="Q8" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R8" s="17">
         <v>5.6660923526288057E-3</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="17">
         <v>5.6031935999342527E-3</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="17">
         <v>3.7109375E-2</v>
       </c>
     </row>
@@ -4658,34 +4640,34 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <v>0.921875</v>
       </c>
-      <c r="M9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R9" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S9" s="21">
+      <c r="M9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S9" s="17">
         <v>2.734375E-2</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="17">
         <v>0.921875</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="17">
         <v>6.6192579722193445E-2</v>
       </c>
     </row>
@@ -4723,34 +4705,34 @@
       <c r="K10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L10" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M10" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N10" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O10" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P10" s="21">
+      <c r="L10" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P10" s="17">
         <v>2.4370603757179421E-2</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="17">
         <v>0.33130483521613557</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="17">
         <v>4.5287387111781548E-2</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="17">
         <v>0.54029137460741983</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="17">
         <v>0.25782034830084888</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="17">
         <v>0.38316386365476429</v>
       </c>
     </row>
@@ -4788,34 +4770,34 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="M11" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N11" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O11" s="21">
+      <c r="M11" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N11" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O11" s="17">
         <v>7.9634892065499861E-3</v>
       </c>
-      <c r="P11" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q11" s="21">
+      <c r="P11" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q11" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="17">
         <v>0.375</v>
       </c>
-      <c r="T11" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U11" s="21">
+      <c r="T11" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U11" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4853,34 +4835,34 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T12" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U12" s="21">
+      <c r="L12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U12" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
     </row>
@@ -4918,34 +4900,34 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <v>1.21740699266922E-2</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="17">
         <v>0.1363215648819037</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="17">
         <v>0.1363215648819037</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="17">
         <v>0.1363215648819037</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="17">
         <v>0.30493703992157589</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="17">
         <v>0.30493703992157589</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="17">
         <v>0.30493703992157589</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="17">
         <v>1</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="17">
         <v>1</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="17">
         <v>1</v>
       </c>
     </row>
@@ -4983,34 +4965,34 @@
       <c r="K14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="17">
         <v>0.6953125</v>
       </c>
-      <c r="M14" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N14" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O14" s="21">
+      <c r="M14" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O14" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="P14" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R14" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S14" s="21">
+      <c r="P14" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="17">
         <v>0.921875</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="17">
         <v>1.443282393884179E-2</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="17">
         <v>3.6535983605523639E-2</v>
       </c>
     </row>
@@ -5048,34 +5030,34 @@
       <c r="K15" s="3">
         <v>2E-3</v>
       </c>
-      <c r="L15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q15" s="21">
+      <c r="L15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q15" s="17">
         <v>0.275390625</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="S15" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T15" s="21">
+      <c r="S15" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T15" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5113,34 +5095,34 @@
       <c r="K16" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="17">
         <v>0.431640625</v>
       </c>
-      <c r="M16" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N16" s="21">
+      <c r="M16" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N16" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="O16" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P16" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q16" s="21">
+      <c r="O16" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P16" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q16" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="R16" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S16" s="21">
+      <c r="R16" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S16" s="17">
         <v>0.16015625</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="17">
         <v>0.275390625</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="17">
         <v>0.193359375</v>
       </c>
     </row>
@@ -5178,34 +5160,34 @@
       <c r="K17" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P17" s="21">
+      <c r="L17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P17" s="17">
         <v>0.47553265959690127</v>
       </c>
-      <c r="Q17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R17" s="21">
+      <c r="Q17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R17" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="S17" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T17" s="21">
+      <c r="S17" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T17" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5243,34 +5225,34 @@
       <c r="K18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M18" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N18" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O18" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P18" s="21">
+      <c r="L18" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O18" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P18" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <v>1.953125E-2</v>
       </c>
-      <c r="T18" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U18" s="21">
+      <c r="T18" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U18" s="17">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -5308,34 +5290,34 @@
       <c r="K19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="17">
         <v>5.859375E-3</v>
       </c>
-      <c r="M19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R19" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="M19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S19" s="17">
         <v>4.8828125E-2</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="17">
         <v>0.193359375</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19" s="17">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -5373,34 +5355,34 @@
       <c r="K20" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R20" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S20" s="21">
+      <c r="L20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S20" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="17">
         <v>0.16015625</v>
       </c>
-      <c r="U20" s="21">
+      <c r="U20" s="17">
         <v>0.431640625</v>
       </c>
     </row>
@@ -5438,34 +5420,34 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="17">
         <v>0.6953125</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="N21" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O21" s="21">
+      <c r="N21" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O21" s="17">
         <v>1.953125E-2</v>
       </c>
-      <c r="P21" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R21" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S21" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T21" s="21">
+      <c r="P21" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R21" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S21" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T21" s="17">
         <v>5.21723028037114E-2</v>
       </c>
-      <c r="U21" s="21">
+      <c r="U21" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5503,34 +5485,34 @@
       <c r="K22" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="17">
         <v>0.431640625</v>
       </c>
-      <c r="M22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P22" s="21">
+      <c r="M22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P22" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="Q22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T22" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U22" s="21">
+      <c r="Q22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T22" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U22" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5568,34 +5550,34 @@
       <c r="K23" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R23" s="21">
+      <c r="L23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R23" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="S23" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T23" s="21">
+      <c r="S23" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T23" s="17">
         <v>1</v>
       </c>
-      <c r="U23" s="21">
+      <c r="U23" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5633,34 +5615,34 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T24" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U24" s="21">
+      <c r="L24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T24" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U24" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
     </row>
@@ -5698,34 +5680,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="M25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T25" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U25" s="21">
+      <c r="M25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T25" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U25" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5763,34 +5745,34 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T26" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U26" s="21">
+      <c r="L26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T26" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U26" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5828,34 +5810,34 @@
       <c r="K27" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M27" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N27" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O27" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P27" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q27" s="21">
+      <c r="L27" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O27" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P27" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q27" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="17">
         <v>0.193359375</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="17">
         <v>0.16015625</v>
       </c>
-      <c r="U27" s="21">
+      <c r="U27" s="17">
         <v>0.10546875</v>
       </c>
     </row>
@@ -5893,34 +5875,34 @@
       <c r="K28" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q28" s="21">
+      <c r="L28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q28" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="R28" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S28" s="21">
+      <c r="R28" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S28" s="17">
         <v>2.734375E-2</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U28" s="17">
         <v>0.431640625</v>
       </c>
     </row>
@@ -5958,34 +5940,34 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="17">
         <v>3.6049295579747211E-2</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="17">
         <v>0.1026940116086453</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="O29" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P29" s="21">
+      <c r="O29" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P29" s="17">
         <v>0.44220605952618691</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="17">
         <v>3.1641777385979279E-2</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="17">
         <v>1.057158882833038E-2</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="17">
         <v>7.8416715589014648E-3</v>
       </c>
-      <c r="T29" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U29" s="21">
+      <c r="T29" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U29" s="17">
         <v>2.063755824397218E-2</v>
       </c>
     </row>
@@ -6023,34 +6005,34 @@
       <c r="K30" s="3">
         <v>2E-3</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="17">
         <v>1.953125E-2</v>
       </c>
-      <c r="M30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T30" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U30" s="21">
+      <c r="M30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T30" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U30" s="17">
         <v>8.3984375E-2</v>
       </c>
     </row>
@@ -6088,34 +6070,34 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="17">
         <v>3.6049295579747211E-2</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="17">
         <v>7.6009432566644646E-3</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="17">
         <v>0.44399437602300951</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="17">
         <v>6.6369129258750145E-2</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="17">
         <v>7.6133011608586376E-2</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="17">
         <v>0.4921875</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="17">
         <v>0.5405548641319784</v>
       </c>
-      <c r="S31" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T31" s="21">
+      <c r="S31" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T31" s="17">
         <v>5.7930454285468717E-3</v>
       </c>
-      <c r="U31" s="21">
+      <c r="U31" s="17">
         <v>0.5405548641319784</v>
       </c>
     </row>
@@ -6153,34 +6135,34 @@
       <c r="K32" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="17">
         <v>1.3671875E-2</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="17">
         <v>0.16015625</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="17">
         <v>0.35895143585262629</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="17">
         <v>0.76953125</v>
       </c>
-      <c r="R32" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S32" s="21">
+      <c r="R32" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S32" s="17">
         <v>0.625</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="17">
         <v>8.3984375E-2</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U32" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6218,34 +6200,34 @@
       <c r="K33" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="17">
         <v>0.431640625</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="17">
         <v>0.375</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="17">
         <v>4.8828125E-2</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="17">
         <v>0.130859375</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="17">
         <v>5.859375E-3</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="S33" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T33" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U33" s="21">
+      <c r="S33" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T33" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U33" s="17">
         <v>0.556640625</v>
       </c>
     </row>
@@ -6283,34 +6265,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S34" s="21">
+      <c r="L34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S34" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="T34" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U34" s="21">
+      <c r="T34" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U34" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6348,34 +6330,34 @@
       <c r="K35" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="M35" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N35" s="21">
+      <c r="M35" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N35" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="O35" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P35" s="21">
+      <c r="O35" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P35" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="R35" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S35" s="21">
+      <c r="R35" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S35" s="17">
         <v>9.765625E-3</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="17">
         <v>0.921875</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6413,34 +6395,34 @@
       <c r="K36" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S36" s="21">
+      <c r="L36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S36" s="17">
         <v>1.953125E-2</v>
       </c>
-      <c r="T36" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U36" s="21">
+      <c r="T36" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U36" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6478,34 +6460,34 @@
       <c r="K37" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T37" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U37" s="21">
+      <c r="L37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T37" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U37" s="17">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -6543,34 +6525,34 @@
       <c r="K38" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N38" s="21">
+      <c r="L38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N38" s="17">
         <v>0.16015625</v>
       </c>
-      <c r="O38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S38" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T38" s="21">
+      <c r="O38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S38" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T38" s="17">
         <v>0.845703125</v>
       </c>
-      <c r="U38" s="21">
+      <c r="U38" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6608,34 +6590,34 @@
       <c r="K39" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L39" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M39" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N39" s="21">
+      <c r="L39" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M39" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N39" s="17">
         <v>5.859375E-3</v>
       </c>
-      <c r="O39" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P39" s="21">
+      <c r="O39" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P39" s="17">
         <v>0.130859375</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="17">
         <v>1.3671875E-2</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="17">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="17">
         <v>2.734375E-2</v>
       </c>
-      <c r="T39" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U39" s="21">
+      <c r="T39" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U39" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6673,34 +6655,34 @@
       <c r="K40" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P40" s="21">
+      <c r="L40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P40" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R40" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S40" s="21">
+      <c r="Q40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R40" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S40" s="17">
         <v>0.130859375</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40" s="17">
         <v>0.76953125</v>
       </c>
-      <c r="U40" s="21">
+      <c r="U40" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6738,34 +6720,34 @@
       <c r="K41" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q41" s="21">
+      <c r="L41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q41" s="17">
         <v>0.10546875</v>
       </c>
-      <c r="R41" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S41" s="21">
+      <c r="R41" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S41" s="17">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="T41" s="21">
+      <c r="T41" s="17">
         <v>1.3671875E-2</v>
       </c>
-      <c r="U41" s="21">
+      <c r="U41" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6803,34 +6785,34 @@
       <c r="K42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L42" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M42" s="21">
+      <c r="L42" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M42" s="17">
         <v>0.193359375</v>
       </c>
-      <c r="N42" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O42" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P42" s="21">
+      <c r="N42" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O42" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P42" s="17">
         <v>0.4921875</v>
       </c>
-      <c r="Q42" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R42" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S42" s="21">
+      <c r="Q42" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R42" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S42" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="T42" s="21">
+      <c r="T42" s="17">
         <v>3.90625E-3</v>
       </c>
-      <c r="U42" s="21">
+      <c r="U42" s="17">
         <v>0.625</v>
       </c>
     </row>
@@ -6868,34 +6850,34 @@
       <c r="K43" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T43" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U43" s="21">
+      <c r="L43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T43" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U43" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6933,34 +6915,34 @@
       <c r="K44" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P44" s="21">
+      <c r="L44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P44" s="17">
         <v>1.953125E-2</v>
       </c>
-      <c r="Q44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S44" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T44" s="21">
+      <c r="Q44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S44" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T44" s="17">
         <v>5.859375E-3</v>
       </c>
-      <c r="U44" s="21">
+      <c r="U44" s="17">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6998,34 +6980,34 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T45" s="21">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U45" s="21">
+      <c r="L45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T45" s="17">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U45" s="17">
         <v>5.859375E-3</v>
       </c>
     </row>
@@ -7058,12 +7040,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7106,36 +7088,36 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:61" s="8" customFormat="1" ht="22">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:61" s="8" customFormat="1" ht="22">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -7231,22 +7213,22 @@
       <c r="M4" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>0.89831733703613281</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <v>1.33514404296875E-4</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="17">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="17">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="17">
         <v>3.9989471435546882E-2</v>
       </c>
       <c r="T4" s="5"/>
@@ -7332,22 +7314,22 @@
       <c r="M5" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>1.2079238891601561E-2</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="17">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="17">
         <v>1.3616561889648439E-2</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="17">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="17">
         <v>8.30841064453125E-3</v>
       </c>
       <c r="T5" s="5"/>
@@ -7433,22 +7415,22 @@
       <c r="M6" s="3">
         <v>0.185</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <v>1.531219482421875E-2</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <v>6.389617919921875E-3</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="17">
         <v>5.855560302734375E-4</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="17">
         <v>0.64765548706054688</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="17">
         <v>0.1053981781005859</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="17">
         <v>0.75616645812988281</v>
       </c>
       <c r="T6" s="5"/>
@@ -7534,22 +7516,22 @@
       <c r="M7" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="17">
         <v>0.45237541198730469</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="17">
         <v>0.23956229205866381</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="17">
         <v>0.23051261901855469</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <v>5.9367211856653293E-2</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="17">
         <v>3.6544952745071801E-2</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="17">
         <v>0.78412628173828125</v>
       </c>
       <c r="T7" s="5"/>
@@ -7635,22 +7617,22 @@
       <c r="M8" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="17">
         <v>0.82265402861233783</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="17">
         <v>0.98509949564105403</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="17">
         <v>9.7307205200195312E-2</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="17">
         <v>0.22440415173796599</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="17">
         <v>4.1888066490352087E-2</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="17">
         <v>0.45237541198730469</v>
       </c>
       <c r="T8" s="5"/>
@@ -7736,22 +7718,22 @@
       <c r="M9" s="3">
         <v>0.04</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <v>0.86948776245117188</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="17">
         <v>0.2161674499511719</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="17">
         <v>4.85992431640625E-3</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="17">
         <v>0.81235504150390625</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="17">
         <v>4.2209625244140616E-3</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="17">
         <v>0.2024497985839844</v>
       </c>
       <c r="T9" s="5"/>
@@ -7837,22 +7819,22 @@
       <c r="M10" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="17">
         <v>0.1139869689941406</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="17">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="17">
         <v>0.70118141174316406</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="17">
         <v>0.1230926513671875</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="17">
         <v>0.1230926513671875</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="17">
         <v>2.9575347900390622E-2</v>
       </c>
       <c r="T10" s="5"/>
@@ -7938,22 +7920,22 @@
       <c r="M11" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="17">
         <v>0.43043327331542969</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="17">
         <v>0.29425239562988281</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="17">
         <v>0.1768531799316406</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="17">
         <v>0.34881019592285162</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="17">
         <v>0.18934822082519531</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="17">
         <v>0.14290618896484381</v>
       </c>
       <c r="T11" s="5"/>
@@ -8039,22 +8021,22 @@
       <c r="M12" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="17">
         <v>0.16495704650878909</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="17">
         <v>0.86948776245117188</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="17">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="17">
         <v>0.1850684290365544</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="17">
         <v>4.76837158203125E-5</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="17">
         <v>7.076263427734375E-4</v>
       </c>
       <c r="T12" s="5"/>
@@ -8140,22 +8122,22 @@
       <c r="M13" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="17">
         <v>0.59405373037512788</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="17">
         <v>0.52547277692961758</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="17">
         <v>8.2569291532479022E-2</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="17">
         <v>3.4539241446578862E-2</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="17">
         <v>9.5691731570594321E-5</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="17">
         <v>7.2956085205078116E-3</v>
       </c>
       <c r="T13" s="5"/>
@@ -8241,22 +8223,22 @@
       <c r="M14" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="17">
         <v>0.15364646911621091</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="17">
         <v>0.18934822082519531</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="17">
         <v>0.54587554931640625</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="17">
         <v>1</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="17">
         <v>0.23051261901855469</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="17">
         <v>0.1230926513671875</v>
       </c>
       <c r="T14" s="5"/>
@@ -8342,22 +8324,22 @@
       <c r="M15" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="17">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="17">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="17">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="17">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="17">
         <v>0.1213082284773904</v>
       </c>
       <c r="T15" s="5"/>
@@ -8443,22 +8425,22 @@
       <c r="M16" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="17">
         <v>1.049041748046875E-4</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="17">
         <v>0.16495704650878909</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="17">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="17">
         <v>0.34881019592285162</v>
       </c>
       <c r="T16" s="5"/>
@@ -8544,22 +8526,22 @@
       <c r="M17" s="3">
         <v>0.36</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="17">
         <v>5.8258056640625E-2</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="17">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="17">
         <v>0.1139869689941406</v>
       </c>
       <c r="T17" s="5"/>
@@ -8645,22 +8627,22 @@
       <c r="M18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="17">
         <v>0.23051261901855469</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="17">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="17">
         <v>8.30841064453125E-3</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="17">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <v>0.40909767150878912</v>
       </c>
       <c r="T18" s="5"/>
@@ -8746,22 +8728,22 @@
       <c r="M19" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="17">
         <v>0.70118141174316406</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="17">
         <v>7.58514404296875E-2</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="17">
         <v>0.57059669494628906</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="17">
         <v>2.1484375E-2</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="17">
         <v>0.2161674499511719</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="17">
         <v>0.43043327331542969</v>
       </c>
       <c r="T19" s="5"/>
@@ -8847,22 +8829,22 @@
       <c r="M20" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="17">
         <v>2.3950576782226559E-2</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="17">
         <v>7.2956085205078116E-3</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="17">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="17">
         <v>0.1139869689941406</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="17">
         <v>2.3950576782226559E-2</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="17">
         <v>8.9694976806640625E-2</v>
       </c>
       <c r="T20" s="5"/>
@@ -8948,22 +8930,22 @@
       <c r="M21" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="17">
         <v>0.26109886169433588</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="17">
         <v>0.34881019592285162</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="17">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="17">
         <v>0.75616645812988281</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="17">
         <v>2.613067626953125E-4</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="17">
         <v>1.9855499267578121E-3</v>
       </c>
       <c r="T21" s="5"/>
@@ -9049,22 +9031,22 @@
       <c r="M22" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="17">
         <v>0.2454872131347656</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="17">
         <v>0.18934822082519531</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="17">
         <v>1.049041748046875E-4</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="17">
         <v>0.36827659606933588</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="17">
         <v>3.948211669921875E-4</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="17">
         <v>1.0166168212890621E-3</v>
       </c>
       <c r="T22" s="5"/>
@@ -9150,22 +9132,22 @@
       <c r="M23" s="3">
         <v>0.222</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="17">
         <v>0.78412628173828125</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="17">
         <v>0.98543548583984375</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="17">
         <v>1.3616561889648439E-2</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="17">
         <v>0.64765548706054688</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="17">
         <v>5.316925048828125E-2</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="17">
         <v>7.2956085205078116E-3</v>
       </c>
       <c r="T23" s="5"/>
@@ -9251,22 +9233,22 @@
       <c r="M24" s="3">
         <v>0.01</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="17">
         <v>6.389617919921875E-3</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="17">
         <v>0.16495704650878909</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="17">
         <v>1.209259033203125E-3</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="17">
         <v>0.75616645812988281</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="17">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="17">
         <v>3.65447998046875E-3</v>
       </c>
       <c r="T24" s="5"/>
@@ -9352,22 +9334,22 @@
       <c r="M25" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="17">
         <v>0.78412628173828125</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="17">
         <v>0.81235504150390625</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="17">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="17">
         <v>0.62151336669921875</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="17">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="17">
         <v>4.76837158203125E-5</v>
       </c>
       <c r="T25" s="5"/>
@@ -9453,22 +9435,22 @@
       <c r="M26" s="3">
         <v>0.153</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="17">
         <v>0.31179428100585938</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="17">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="17">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="17">
         <v>1.923370361328125E-2</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="17">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T26" s="5"/>
@@ -9554,22 +9536,22 @@
       <c r="M27" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="17">
         <v>1.7181396484375E-2</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="17">
         <v>0.89831733703613281</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="17">
         <v>0.29425239562988281</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="17">
         <v>1.923370361328125E-2</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="17">
         <v>0.956329345703125</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="17">
         <v>0.40909767150878912</v>
       </c>
       <c r="T27" s="5"/>
@@ -9655,22 +9637,22 @@
       <c r="M28" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="17">
         <v>0.2161674499511719</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="17">
         <v>3.948211669921875E-4</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="17">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="17">
         <v>0.13272666931152341</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="17">
         <v>8.20159912109375E-5</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="17">
         <v>4.2209625244140616E-3</v>
       </c>
       <c r="T28" s="5"/>
@@ -9756,22 +9738,22 @@
       <c r="M29" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="17">
         <v>0.1768531799316406</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="17">
         <v>4.5773951687468707E-2</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="17">
         <v>3.1528472900390621E-3</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="17">
         <v>0.34110556499699263</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="17">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="17">
         <v>5.580902099609375E-3</v>
       </c>
       <c r="T29" s="5"/>
@@ -9857,22 +9839,22 @@
       <c r="M30" s="3">
         <v>0.106</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="17">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="17">
         <v>0.84082221984863281</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="17">
         <v>3.6233901977539062E-2</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="17">
         <v>1.2079238891601561E-2</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="17">
         <v>0.52167320251464844</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="17">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T30" s="5"/>
@@ -9958,22 +9940,22 @@
       <c r="M31" s="3">
         <v>0.1</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="17">
         <v>5.316925048828125E-2</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="17">
         <v>1.33514404296875E-5</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="17">
         <v>1.209259033203125E-3</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="17">
         <v>1.33514404296875E-4</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="17">
         <v>0.54587554931640625</v>
       </c>
       <c r="T31" s="5"/>
@@ -10059,22 +10041,22 @@
       <c r="M32" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="17">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="17">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="17">
         <v>0.13272666931152341</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="17">
         <v>2.712249755859375E-3</v>
       </c>
       <c r="T32" s="5"/>
@@ -10160,22 +10142,22 @@
       <c r="M33" s="3">
         <v>0.111</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="17">
         <v>1.7181396484375E-2</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="17">
         <v>1.0166168212890621E-3</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="17">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="17">
         <v>0.1139869689941406</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="17">
         <v>7.076263427734375E-4</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="17">
         <v>3.6233901977539062E-2</v>
       </c>
       <c r="T33" s="5"/>
@@ -10261,22 +10243,22 @@
       <c r="M34" s="3">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="17">
         <v>2.9575347900390622E-2</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="17">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="17">
         <v>3.1528472900390621E-3</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="17">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="17">
         <v>8.2550048828125E-2</v>
       </c>
       <c r="T34" s="5"/>
@@ -10362,22 +10344,22 @@
       <c r="M35" s="3">
         <v>0.03</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="17">
         <v>0.13272666931152341</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="17">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="17">
         <v>8.9694976806640625E-2</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="17">
         <v>0.54587554931640625</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="17">
         <v>0.29425239562988281</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="17">
         <v>0.38837623596191412</v>
       </c>
       <c r="T35" s="5"/>
@@ -10463,22 +10445,22 @@
       <c r="M36" s="3">
         <v>0.182</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="17">
         <v>0.1139869689941406</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="17">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="17">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="17">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="17">
         <v>0.18934822082519531</v>
       </c>
       <c r="T36" s="5"/>
@@ -10564,22 +10546,22 @@
       <c r="M37" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="17">
         <v>0.26109886169433588</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="17">
         <v>0.75616645812988281</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="17">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="17">
         <v>0.67422294616699219</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="17">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37" s="17">
         <v>3.223419189453125E-4</v>
       </c>
       <c r="T37" s="5"/>
@@ -10665,22 +10647,22 @@
       <c r="M38" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="17">
         <v>0.72850608825683594</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="17">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="17">
         <v>0.31179428100585938</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="17">
         <v>9.4356536865234375E-3</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="17">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="17">
         <v>0.54587554931640625</v>
       </c>
       <c r="T38" s="5"/>
@@ -10766,22 +10748,22 @@
       <c r="M39" s="3">
         <v>0.03</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="17">
         <v>9.4356536865234375E-3</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="17">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P39" s="17">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="17">
         <v>0.14290618896484381</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="17">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="17">
         <v>0.26109886169433588</v>
       </c>
       <c r="T39" s="5"/>
@@ -10867,22 +10849,22 @@
       <c r="M40" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="17">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="17">
         <v>0.2024497985839844</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="17">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="17">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="17">
         <v>1.689910888671875E-3</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40" s="17">
         <v>2.613067626953125E-4</v>
       </c>
       <c r="T40" s="5"/>
@@ -10968,22 +10950,22 @@
       <c r="M41" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="17">
         <v>0.1768531799316406</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="17">
         <v>0.29425239562988281</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="17">
         <v>4.825592041015625E-4</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="17">
         <v>0.1768531799316406</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="17">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41" s="17">
         <v>0.27735519409179688</v>
       </c>
       <c r="T41" s="5"/>
@@ -11069,22 +11051,22 @@
       <c r="M42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="17">
         <v>5.580902099609375E-3</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="17">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="17">
         <v>0.2454872131347656</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="17">
         <v>0.70118141174316406</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="17">
         <v>1.531219482421875E-2</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42" s="17">
         <v>6.389617919921875E-3</v>
       </c>
       <c r="T42" s="5"/>
@@ -11170,22 +11152,22 @@
       <c r="M43" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="17">
         <v>0.47490501403808588</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="17">
         <v>7.2956085205078116E-3</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Q43" s="17">
         <v>9.7307205200195312E-2</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R43" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S43" s="21">
+      <c r="S43" s="17">
         <v>3.814697265625E-6</v>
       </c>
       <c r="T43" s="5"/>
@@ -11271,22 +11253,22 @@
       <c r="M44" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="17">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Q44" s="17">
         <v>3.9989471435546882E-2</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="17">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44" s="17">
         <v>1.209259033203125E-3</v>
       </c>
       <c r="T44" s="5"/>
@@ -11372,22 +11354,22 @@
       <c r="M45" s="3">
         <v>0.187</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="17">
         <v>0.18934822082519531</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="17">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="17">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="17">
         <v>1.33514404296875E-5</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="17">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45" s="17">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T45" s="5"/>
@@ -11434,19 +11416,19 @@
       <c r="BI45" s="5"/>
     </row>
     <row r="46" spans="1:61" ht="18">
-      <c r="B46" s="22">
+      <c r="B46" s="18">
         <f>AVERAGE(B4:B45)</f>
         <v>0.92223809523809508</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="18">
         <f t="shared" ref="C46:E46" si="0">AVERAGE(C4:C45)</f>
         <v>5.6190476190476207E-3</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="18">
         <f t="shared" si="0"/>
         <v>0.9598809523809525</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="18">
         <f t="shared" si="0"/>
         <v>4.714285714285716E-3</v>
       </c>
@@ -11605,13 +11587,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11629,7 +11611,7 @@
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1">
@@ -11638,20 +11620,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="22" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="22" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -11667,7 +11649,7 @@
       <c r="F3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>181</v>
       </c>
     </row>
@@ -11690,7 +11672,7 @@
       <c r="F4" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11713,7 +11695,7 @@
       <c r="F5" s="5">
         <v>4.7000000000000042E-2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11736,7 +11718,7 @@
       <c r="F6" s="5">
         <v>0.16</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11759,7 +11741,7 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="21">
         <v>0.431640625</v>
       </c>
     </row>
@@ -11782,7 +11764,7 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="21">
         <v>0.94341578679537386</v>
       </c>
     </row>
@@ -11805,7 +11787,7 @@
       <c r="F9" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11828,7 +11810,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <v>0.47525380583898241</v>
       </c>
     </row>
@@ -11851,7 +11833,7 @@
       <c r="F11" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11874,7 +11856,7 @@
       <c r="F12" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11897,7 +11879,7 @@
       <c r="F13" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11920,7 +11902,7 @@
       <c r="F14" s="5">
         <v>2.0000000000000021E-2</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11943,7 +11925,7 @@
       <c r="F15" s="5">
         <v>-1.0000000000000011E-2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11966,7 +11948,7 @@
       <c r="F16" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="21">
         <v>0.76953125</v>
       </c>
     </row>
@@ -11989,7 +11971,7 @@
       <c r="F17" s="5">
         <v>-7.0000000000000062E-3</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="21">
         <v>3.90625E-3</v>
       </c>
     </row>
@@ -12012,7 +11994,7 @@
       <c r="F18" s="5">
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12035,7 +12017,7 @@
       <c r="F19" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="21">
         <v>5.859375E-3</v>
       </c>
     </row>
@@ -12058,7 +12040,7 @@
       <c r="F20" s="5">
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12081,7 +12063,7 @@
       <c r="F21" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12104,7 +12086,7 @@
       <c r="F22" s="5">
         <v>1.7000000000000019E-2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12127,7 +12109,7 @@
       <c r="F23" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12150,7 +12132,7 @@
       <c r="F24" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12173,7 +12155,7 @@
       <c r="F25" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12196,7 +12178,7 @@
       <c r="F26" s="5">
         <v>4.0000000000000044E-3</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12219,7 +12201,7 @@
       <c r="F27" s="5">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12242,7 +12224,7 @@
       <c r="F28" s="5">
         <v>-1.0000000000000011E-3</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12265,7 +12247,7 @@
       <c r="F29" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12288,7 +12270,7 @@
       <c r="F30" s="5">
         <v>-1.0000000000000011E-3</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="21">
         <v>0.921875</v>
       </c>
     </row>
@@ -12311,7 +12293,7 @@
       <c r="F31" s="5">
         <v>2.8000000000000021E-2</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12334,7 +12316,7 @@
       <c r="F32" s="5">
         <v>-3.0000000000000031E-3</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="21">
         <v>3.7109375E-2</v>
       </c>
     </row>
@@ -12357,7 +12339,7 @@
       <c r="F33" s="5">
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12380,7 +12362,7 @@
       <c r="F34" s="5">
         <v>1.8000000000000019E-2</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12403,7 +12385,7 @@
       <c r="F35" s="5">
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12426,7 +12408,7 @@
       <c r="F36" s="5">
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12449,7 +12431,7 @@
       <c r="F37" s="5">
         <v>3.5999999999999921E-2</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12472,7 +12454,7 @@
       <c r="F38" s="5">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12495,7 +12477,7 @@
       <c r="F39" s="5">
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12518,7 +12500,7 @@
       <c r="F40" s="5">
         <v>4.0000000000000044E-3</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12541,7 +12523,7 @@
       <c r="F41" s="5">
         <v>1.300000000000001E-2</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12564,7 +12546,7 @@
       <c r="F42" s="5">
         <v>1.300000000000001E-2</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12587,7 +12569,7 @@
       <c r="F43" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="21">
         <v>0.322265625</v>
       </c>
     </row>
@@ -12610,7 +12592,7 @@
       <c r="F44" s="5">
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="21">
         <v>5.859375E-3</v>
       </c>
     </row>
@@ -12633,7 +12615,7 @@
       <c r="F45" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="21">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12658,7 +12640,7 @@
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="6" width="29.33203125" style="26" customWidth="1"/>
+    <col min="5" max="6" width="29.33203125" style="22" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -13534,6 +13516,2096 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66351A1-E227-224B-A3D4-1AE12B361F74}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="15" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="50" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="22">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" ht="22">
+      <c r="A3" s="24"/>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.871</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>18.445</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6.59</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21.311</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>28.15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="J4" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4.6779999999999999</v>
+      </c>
+      <c r="L4" s="5">
+        <v>40.497</v>
+      </c>
+      <c r="M4" s="5">
+        <v>15.71</v>
+      </c>
+      <c r="N4" s="5">
+        <v>36.813000000000002</v>
+      </c>
+      <c r="O4" s="5">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15.342000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6.31</v>
+      </c>
+      <c r="F5" s="5">
+        <v>18.216000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.9969999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>21.617000000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>24.995999999999999</v>
+      </c>
+      <c r="M5" s="5">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="N5" s="5">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7.2249999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>23.902000000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>26.606000000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38.593000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.577</v>
+      </c>
+      <c r="J6" s="5">
+        <v>34.271000000000001</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4.9710000000000001</v>
+      </c>
+      <c r="L6" s="5">
+        <v>51.566000000000003</v>
+      </c>
+      <c r="M6" s="5">
+        <v>19.72</v>
+      </c>
+      <c r="N6" s="5">
+        <v>49.406999999999996</v>
+      </c>
+      <c r="O6" s="5">
+        <v>20.233000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>11.526999999999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49.613</v>
+      </c>
+      <c r="E7" s="5">
+        <v>21.175000000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>51.579000000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>21.021000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>79.686000000000007</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="J7" s="5">
+        <v>90.516000000000005</v>
+      </c>
+      <c r="K7" s="5">
+        <v>21.437999999999999</v>
+      </c>
+      <c r="L7" s="5">
+        <v>171.95599999999999</v>
+      </c>
+      <c r="M7" s="5">
+        <v>92.555999999999997</v>
+      </c>
+      <c r="N7" s="5">
+        <v>188.30600000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <v>114.559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10.785</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.378</v>
+      </c>
+      <c r="D8" s="5">
+        <v>46.814</v>
+      </c>
+      <c r="E8" s="5">
+        <v>16.388000000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>49.354999999999997</v>
+      </c>
+      <c r="G8" s="5">
+        <v>20.181999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>75.863</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6.19</v>
+      </c>
+      <c r="J8" s="5">
+        <v>87.932000000000002</v>
+      </c>
+      <c r="K8" s="5">
+        <v>20.974</v>
+      </c>
+      <c r="L8" s="5">
+        <v>155.29</v>
+      </c>
+      <c r="M8" s="5">
+        <v>82.343000000000004</v>
+      </c>
+      <c r="N8" s="5">
+        <v>178.857</v>
+      </c>
+      <c r="O8" s="5">
+        <v>104.313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.269</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>42.31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15.888</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45.573999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>18.940999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>71.33</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.83</v>
+      </c>
+      <c r="J9" s="5">
+        <v>78.772000000000006</v>
+      </c>
+      <c r="K9" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <v>141.334</v>
+      </c>
+      <c r="M9" s="5">
+        <v>76.513999999999996</v>
+      </c>
+      <c r="N9" s="5">
+        <v>176.09399999999999</v>
+      </c>
+      <c r="O9" s="5">
+        <v>99.637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8.8079999999999998</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D10" s="5">
+        <v>33.575000000000003</v>
+      </c>
+      <c r="E10" s="5">
+        <v>13.244999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>34.804000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>14.010999999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <v>52.695</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>52.682000000000002</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9.3819999999999997</v>
+      </c>
+      <c r="L10" s="5">
+        <v>80.433000000000007</v>
+      </c>
+      <c r="M10" s="5">
+        <v>31.454999999999998</v>
+      </c>
+      <c r="N10" s="5">
+        <v>123.36799999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>17.608000000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D11" s="5">
+        <v>101.03100000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>36.853999999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>85.347999999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>32.542000000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <v>184.328</v>
+      </c>
+      <c r="I11" s="5">
+        <v>41.423000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>230.57900000000001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>37.398000000000003</v>
+      </c>
+      <c r="L11" s="5">
+        <v>362.19200000000001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>190.77199999999999</v>
+      </c>
+      <c r="N11" s="5">
+        <v>449.738</v>
+      </c>
+      <c r="O11" s="5">
+        <v>183.08500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.108000000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42.073</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15.351000000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>46.213000000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <v>17.876000000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>69.801000000000002</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4.18</v>
+      </c>
+      <c r="J12" s="5">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="K12" s="5">
+        <v>15.228999999999999</v>
+      </c>
+      <c r="L12" s="5">
+        <v>156.375</v>
+      </c>
+      <c r="M12" s="5">
+        <v>87.96</v>
+      </c>
+      <c r="N12" s="5">
+        <v>157.14699999999999</v>
+      </c>
+      <c r="O12" s="5">
+        <v>77.043999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>16.388999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5.673</v>
+      </c>
+      <c r="F13" s="5">
+        <v>19.143999999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6.2619999999999996</v>
+      </c>
+      <c r="H13" s="5">
+        <v>24.213000000000001</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>22.617000000000001</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="L13" s="5">
+        <v>31.484000000000002</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10.532999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>31.016999999999999</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8.8040000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>9.3960000000000008</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>34.570999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>38.396999999999998</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="H14" s="5">
+        <v>56.197000000000003</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.9109999999999996</v>
+      </c>
+      <c r="J14" s="5">
+        <v>57.616999999999997</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.1760000000000002</v>
+      </c>
+      <c r="L14" s="5">
+        <v>90.58</v>
+      </c>
+      <c r="M14" s="5">
+        <v>37.423999999999999</v>
+      </c>
+      <c r="N14" s="5">
+        <v>139.107</v>
+      </c>
+      <c r="O14" s="5">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>12.097</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.121</v>
+      </c>
+      <c r="D15" s="5">
+        <v>56.478000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21.416</v>
+      </c>
+      <c r="F15" s="5">
+        <v>60.027999999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>23.337</v>
+      </c>
+      <c r="H15" s="5">
+        <v>96.474999999999994</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3.242</v>
+      </c>
+      <c r="J15" s="5">
+        <v>116.021</v>
+      </c>
+      <c r="K15" s="5">
+        <v>22.742999999999999</v>
+      </c>
+      <c r="L15" s="5">
+        <v>206.81200000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>116.18899999999999</v>
+      </c>
+      <c r="N15" s="5">
+        <v>252.64400000000001</v>
+      </c>
+      <c r="O15" s="5">
+        <v>139.43199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14.167999999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>71.090999999999994</v>
+      </c>
+      <c r="E16" s="5">
+        <v>27.477</v>
+      </c>
+      <c r="F16" s="5">
+        <v>67.290999999999997</v>
+      </c>
+      <c r="G16" s="5">
+        <v>24.533999999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>119.399</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>162.88800000000001</v>
+      </c>
+      <c r="K16" s="5">
+        <v>31.326000000000001</v>
+      </c>
+      <c r="L16" s="5">
+        <v>297.74200000000002</v>
+      </c>
+      <c r="M16" s="5">
+        <v>182.84200000000001</v>
+      </c>
+      <c r="N16" s="5">
+        <v>358.91</v>
+      </c>
+      <c r="O16" s="5">
+        <v>182.91499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13.673</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>67.58</v>
+      </c>
+      <c r="E17" s="5">
+        <v>25.835999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>65.152000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>23.187000000000001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>115.166</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.7879999999999998</v>
+      </c>
+      <c r="J17" s="5">
+        <v>158.279</v>
+      </c>
+      <c r="K17" s="5">
+        <v>29.667999999999999</v>
+      </c>
+      <c r="L17" s="5">
+        <v>287.78399999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>176.87100000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <v>325.161</v>
+      </c>
+      <c r="O17" s="5">
+        <v>176.30500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5">
+        <v>13.952999999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.497</v>
+      </c>
+      <c r="D18" s="5">
+        <v>65.573999999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>24.878</v>
+      </c>
+      <c r="F18" s="5">
+        <v>63.295999999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>23.398</v>
+      </c>
+      <c r="H18" s="5">
+        <v>114.889</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="J18" s="5">
+        <v>154.12299999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>28.844999999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>258.20999999999998</v>
+      </c>
+      <c r="M18" s="5">
+        <v>146.792</v>
+      </c>
+      <c r="N18" s="5">
+        <v>307.512</v>
+      </c>
+      <c r="O18" s="5">
+        <v>178.05199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>14.49</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.204</v>
+      </c>
+      <c r="D19" s="5">
+        <v>67.364000000000004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>25.881</v>
+      </c>
+      <c r="F19" s="5">
+        <v>66.941999999999993</v>
+      </c>
+      <c r="G19" s="5">
+        <v>24.245000000000001</v>
+      </c>
+      <c r="H19" s="5">
+        <v>120.274</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="J19" s="5">
+        <v>164.203</v>
+      </c>
+      <c r="K19" s="5">
+        <v>24.904</v>
+      </c>
+      <c r="L19" s="5">
+        <v>263.654</v>
+      </c>
+      <c r="M19" s="5">
+        <v>146.09399999999999</v>
+      </c>
+      <c r="N19" s="5">
+        <v>354.10899999999998</v>
+      </c>
+      <c r="O19" s="5">
+        <v>178.441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8.0990000000000002</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30.283000000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10.398999999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>33.948999999999998</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12.331</v>
+      </c>
+      <c r="H20" s="5">
+        <v>48.415999999999997</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5.4109999999999996</v>
+      </c>
+      <c r="J20" s="5">
+        <v>50.753</v>
+      </c>
+      <c r="K20" s="5">
+        <v>7.3230000000000004</v>
+      </c>
+      <c r="L20" s="5">
+        <v>71.906000000000006</v>
+      </c>
+      <c r="M20" s="5">
+        <v>24.584</v>
+      </c>
+      <c r="N20" s="5">
+        <v>79.933999999999997</v>
+      </c>
+      <c r="O20" s="5">
+        <v>29.210999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8.9990000000000006</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D21" s="5">
+        <v>32.384</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10.795999999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>36.055</v>
+      </c>
+      <c r="G21" s="5">
+        <v>14.585000000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>53.648000000000003</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5.3860000000000001</v>
+      </c>
+      <c r="J21" s="5">
+        <v>55.890999999999998</v>
+      </c>
+      <c r="K21" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="L21" s="5">
+        <v>81.384</v>
+      </c>
+      <c r="M21" s="5">
+        <v>30.016999999999999</v>
+      </c>
+      <c r="N21" s="5">
+        <v>127.626</v>
+      </c>
+      <c r="O21" s="5">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42.558999999999997</v>
+      </c>
+      <c r="E22" s="5">
+        <v>16.489000000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>45.558</v>
+      </c>
+      <c r="G22" s="5">
+        <v>18.687000000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <v>72.274000000000001</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.355</v>
+      </c>
+      <c r="J22" s="5">
+        <v>81.893000000000001</v>
+      </c>
+      <c r="K22" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="L22" s="5">
+        <v>122.127</v>
+      </c>
+      <c r="M22" s="5">
+        <v>56.405000000000001</v>
+      </c>
+      <c r="N22" s="5">
+        <v>178.55199999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5">
+        <v>11.048999999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>47.676000000000002</v>
+      </c>
+      <c r="E23" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>51.164999999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>21.082000000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>81.325000000000003</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="J23" s="5">
+        <v>93.111999999999995</v>
+      </c>
+      <c r="K23" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="L23" s="5">
+        <v>167.13200000000001</v>
+      </c>
+      <c r="M23" s="5">
+        <v>91.444999999999993</v>
+      </c>
+      <c r="N23" s="5">
+        <v>203.154</v>
+      </c>
+      <c r="O23" s="5">
+        <v>112.779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>63.29</v>
+      </c>
+      <c r="E24" s="5">
+        <v>25.364999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <v>60.222999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>23.178999999999998</v>
+      </c>
+      <c r="H24" s="5">
+        <v>108.54</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="J24" s="5">
+        <v>137.364</v>
+      </c>
+      <c r="K24" s="5">
+        <v>22.297000000000001</v>
+      </c>
+      <c r="L24" s="5">
+        <v>234.131</v>
+      </c>
+      <c r="M24" s="5">
+        <v>142.85300000000001</v>
+      </c>
+      <c r="N24" s="5">
+        <v>292.79500000000002</v>
+      </c>
+      <c r="O24" s="5">
+        <v>167.863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14.67</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.497</v>
+      </c>
+      <c r="D25" s="5">
+        <v>72.171999999999997</v>
+      </c>
+      <c r="E25" s="5">
+        <v>29.835000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>66.486999999999995</v>
+      </c>
+      <c r="G25" s="5">
+        <v>25.344000000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <v>123.09399999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7.7489999999999997</v>
+      </c>
+      <c r="J25" s="5">
+        <v>165.642</v>
+      </c>
+      <c r="K25" s="5">
+        <v>29.187000000000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>280.76100000000002</v>
+      </c>
+      <c r="M25" s="5">
+        <v>157.23500000000001</v>
+      </c>
+      <c r="N25" s="5">
+        <v>361.81599999999997</v>
+      </c>
+      <c r="O25" s="5">
+        <v>187.12100000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5">
+        <v>14.355</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="D26" s="5">
+        <v>69.983999999999995</v>
+      </c>
+      <c r="E26" s="5">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>65.543000000000006</v>
+      </c>
+      <c r="G26" s="5">
+        <v>25.273</v>
+      </c>
+      <c r="H26" s="5">
+        <v>121.117</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="J26" s="5">
+        <v>161.16300000000001</v>
+      </c>
+      <c r="K26" s="5">
+        <v>33.503999999999998</v>
+      </c>
+      <c r="L26" s="5">
+        <v>267.43</v>
+      </c>
+      <c r="M26" s="5">
+        <v>154.17099999999999</v>
+      </c>
+      <c r="N26" s="5">
+        <v>329.13299999999998</v>
+      </c>
+      <c r="O26" s="5">
+        <v>161.172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5">
+        <v>14.991</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D27" s="5">
+        <v>73.599000000000004</v>
+      </c>
+      <c r="E27" s="5">
+        <v>31.417999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>69.37</v>
+      </c>
+      <c r="G27" s="5">
+        <v>26.48</v>
+      </c>
+      <c r="H27" s="5">
+        <v>116.866</v>
+      </c>
+      <c r="I27" s="5">
+        <v>39.341999999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>174.94900000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <v>28.091000000000001</v>
+      </c>
+      <c r="L27" s="5">
+        <v>268.36599999999999</v>
+      </c>
+      <c r="M27" s="5">
+        <v>156.95099999999999</v>
+      </c>
+      <c r="N27" s="5">
+        <v>332.44200000000001</v>
+      </c>
+      <c r="O27" s="5">
+        <v>156.14400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>13.510999999999999</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D28" s="5">
+        <v>64.873000000000005</v>
+      </c>
+      <c r="E28" s="5">
+        <v>27.411000000000001</v>
+      </c>
+      <c r="F28" s="5">
+        <v>61.960999999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>23.484000000000002</v>
+      </c>
+      <c r="H28" s="5">
+        <v>111.727</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3.6579999999999999</v>
+      </c>
+      <c r="J28" s="5">
+        <v>152.34899999999999</v>
+      </c>
+      <c r="K28" s="5">
+        <v>28.155000000000001</v>
+      </c>
+      <c r="L28" s="5">
+        <v>249.13399999999999</v>
+      </c>
+      <c r="M28" s="5">
+        <v>144.38300000000001</v>
+      </c>
+      <c r="N28" s="5">
+        <v>265.58300000000003</v>
+      </c>
+      <c r="O28" s="5">
+        <v>155.00700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.532</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D29" s="5">
+        <v>18.061</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8.8160000000000007</v>
+      </c>
+      <c r="F29" s="5">
+        <v>19.673999999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="H29" s="5">
+        <v>27.076000000000001</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2.492</v>
+      </c>
+      <c r="J29" s="5">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="K29" s="5">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="L29" s="5">
+        <v>32.609000000000002</v>
+      </c>
+      <c r="M29" s="5">
+        <v>9.6349999999999998</v>
+      </c>
+      <c r="N29" s="5">
+        <v>31.423999999999999</v>
+      </c>
+      <c r="O29" s="5">
+        <v>9.8640000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10.106999999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D30" s="5">
+        <v>38.137999999999998</v>
+      </c>
+      <c r="E30" s="5">
+        <v>16.702000000000002</v>
+      </c>
+      <c r="F30" s="5">
+        <v>42.633000000000003</v>
+      </c>
+      <c r="G30" s="5">
+        <v>15.868</v>
+      </c>
+      <c r="H30" s="5">
+        <v>65.680999999999997</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="J30" s="5">
+        <v>72.412999999999997</v>
+      </c>
+      <c r="K30" s="5">
+        <v>16.71</v>
+      </c>
+      <c r="L30" s="5">
+        <v>107.221</v>
+      </c>
+      <c r="M30" s="5">
+        <v>45.744999999999997</v>
+      </c>
+      <c r="N30" s="5">
+        <v>125.006</v>
+      </c>
+      <c r="O30" s="5">
+        <v>62.085999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18">
+      <c r="A31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8.2590000000000003</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.228</v>
+      </c>
+      <c r="D31" s="5">
+        <v>31.332999999999998</v>
+      </c>
+      <c r="E31" s="5">
+        <v>11.429</v>
+      </c>
+      <c r="F31" s="5">
+        <v>34.680999999999997</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11.77</v>
+      </c>
+      <c r="H31" s="5">
+        <v>51.982999999999997</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="J31" s="5">
+        <v>51.156999999999996</v>
+      </c>
+      <c r="K31" s="5">
+        <v>8.702</v>
+      </c>
+      <c r="L31" s="5">
+        <v>79.400999999999996</v>
+      </c>
+      <c r="M31" s="5">
+        <v>31.495000000000001</v>
+      </c>
+      <c r="N31" s="5">
+        <v>69.804000000000002</v>
+      </c>
+      <c r="O31" s="5">
+        <v>21.497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18">
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.6059999999999999</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>26.315000000000001</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8.7769999999999992</v>
+      </c>
+      <c r="F32" s="5">
+        <v>30.638000000000002</v>
+      </c>
+      <c r="G32" s="5">
+        <v>11.004</v>
+      </c>
+      <c r="H32" s="5">
+        <v>44.625</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4.165</v>
+      </c>
+      <c r="J32" s="5">
+        <v>44.534999999999997</v>
+      </c>
+      <c r="K32" s="5">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="L32" s="5">
+        <v>63.402999999999999</v>
+      </c>
+      <c r="M32" s="5">
+        <v>23.116</v>
+      </c>
+      <c r="N32" s="5">
+        <v>64.051000000000002</v>
+      </c>
+      <c r="O32" s="5">
+        <v>21.864000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5">
+        <v>9.6969999999999992</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>41.557000000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>17.532</v>
+      </c>
+      <c r="F33" s="5">
+        <v>46.097000000000001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>17.68</v>
+      </c>
+      <c r="H33" s="5">
+        <v>72.078000000000003</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4.226</v>
+      </c>
+      <c r="J33" s="5">
+        <v>79.438000000000002</v>
+      </c>
+      <c r="K33" s="5">
+        <v>18.341000000000001</v>
+      </c>
+      <c r="L33" s="5">
+        <v>128.52500000000001</v>
+      </c>
+      <c r="M33" s="5">
+        <v>60.588999999999999</v>
+      </c>
+      <c r="N33" s="5">
+        <v>141.24299999999999</v>
+      </c>
+      <c r="O33" s="5">
+        <v>66.465000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7.8959999999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="D34" s="5">
+        <v>27.876999999999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>10.962999999999999</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30.855</v>
+      </c>
+      <c r="G34" s="5">
+        <v>11.305</v>
+      </c>
+      <c r="H34" s="5">
+        <v>43.414999999999999</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="J34" s="5">
+        <v>44.338999999999999</v>
+      </c>
+      <c r="K34" s="5">
+        <v>7.8769999999999998</v>
+      </c>
+      <c r="L34" s="5">
+        <v>61.963000000000001</v>
+      </c>
+      <c r="M34" s="5">
+        <v>21.731000000000002</v>
+      </c>
+      <c r="N34" s="5">
+        <v>65.525000000000006</v>
+      </c>
+      <c r="O34" s="5">
+        <v>22.637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D35" s="5">
+        <v>62.393999999999998</v>
+      </c>
+      <c r="E35" s="5">
+        <v>26.335999999999999</v>
+      </c>
+      <c r="F35" s="5">
+        <v>61.984000000000002</v>
+      </c>
+      <c r="G35" s="5">
+        <v>25.106999999999999</v>
+      </c>
+      <c r="H35" s="5">
+        <v>107.34399999999999</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="J35" s="5">
+        <v>121.92100000000001</v>
+      </c>
+      <c r="K35" s="5">
+        <v>29.097999999999999</v>
+      </c>
+      <c r="L35" s="5">
+        <v>206.774</v>
+      </c>
+      <c r="M35" s="5">
+        <v>109.994</v>
+      </c>
+      <c r="N35" s="5">
+        <v>218.22</v>
+      </c>
+      <c r="O35" s="5">
+        <v>113.961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18">
+      <c r="A36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5">
+        <v>17.771999999999998</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D36" s="5">
+        <v>99.186999999999998</v>
+      </c>
+      <c r="E36" s="5">
+        <v>41.232999999999997</v>
+      </c>
+      <c r="F36" s="5">
+        <v>83.731999999999999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="H36" s="5">
+        <v>200.88800000000001</v>
+      </c>
+      <c r="I36" s="5">
+        <v>52.131</v>
+      </c>
+      <c r="J36" s="5">
+        <v>223.34800000000001</v>
+      </c>
+      <c r="K36" s="5">
+        <v>36.930999999999997</v>
+      </c>
+      <c r="L36" s="5">
+        <v>364.702</v>
+      </c>
+      <c r="M36" s="5">
+        <v>207.59800000000001</v>
+      </c>
+      <c r="N36" s="5">
+        <v>381.56400000000002</v>
+      </c>
+      <c r="O36" s="5">
+        <v>148.74799999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18">
+      <c r="A37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11.207000000000001</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D37" s="5">
+        <v>51.576000000000001</v>
+      </c>
+      <c r="E37" s="5">
+        <v>22.696000000000002</v>
+      </c>
+      <c r="F37" s="5">
+        <v>52.67</v>
+      </c>
+      <c r="G37" s="5">
+        <v>21.748999999999999</v>
+      </c>
+      <c r="H37" s="5">
+        <v>85.397000000000006</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.702</v>
+      </c>
+      <c r="J37" s="5">
+        <v>93.847999999999999</v>
+      </c>
+      <c r="K37" s="5">
+        <v>22.381</v>
+      </c>
+      <c r="L37" s="5">
+        <v>160.202</v>
+      </c>
+      <c r="M37" s="5">
+        <v>92.867999999999995</v>
+      </c>
+      <c r="N37" s="5">
+        <v>173.47399999999999</v>
+      </c>
+      <c r="O37" s="5">
+        <v>100.297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5">
+        <v>8.8450000000000006</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="D38" s="5">
+        <v>31.533999999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>11.923</v>
+      </c>
+      <c r="F38" s="5">
+        <v>34.249000000000002</v>
+      </c>
+      <c r="G38" s="5">
+        <v>12.641999999999999</v>
+      </c>
+      <c r="H38" s="5">
+        <v>51.058</v>
+      </c>
+      <c r="I38" s="5">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="J38" s="5">
+        <v>50.655999999999999</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8.5129999999999999</v>
+      </c>
+      <c r="L38" s="5">
+        <v>77.183999999999997</v>
+      </c>
+      <c r="M38" s="5">
+        <v>31.850999999999999</v>
+      </c>
+      <c r="N38" s="5">
+        <v>71.674000000000007</v>
+      </c>
+      <c r="O38" s="5">
+        <v>25.085999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18">
+      <c r="A39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D39" s="5">
+        <v>38.058999999999997</v>
+      </c>
+      <c r="E39" s="5">
+        <v>15.602</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43.497</v>
+      </c>
+      <c r="G39" s="5">
+        <v>15.733000000000001</v>
+      </c>
+      <c r="H39" s="5">
+        <v>65.679000000000002</v>
+      </c>
+      <c r="I39" s="5">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="J39" s="5">
+        <v>72.194000000000003</v>
+      </c>
+      <c r="K39" s="5">
+        <v>15.946</v>
+      </c>
+      <c r="L39" s="5">
+        <v>112.121</v>
+      </c>
+      <c r="M39" s="5">
+        <v>57.389000000000003</v>
+      </c>
+      <c r="N39" s="5">
+        <v>143.43600000000001</v>
+      </c>
+      <c r="O39" s="5">
+        <v>79.867999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18">
+      <c r="A40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="5">
+        <v>10.250999999999999</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43.052999999999997</v>
+      </c>
+      <c r="E40" s="5">
+        <v>18.085999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>46.921999999999997</v>
+      </c>
+      <c r="G40" s="5">
+        <v>18.033000000000001</v>
+      </c>
+      <c r="H40" s="5">
+        <v>72.533000000000001</v>
+      </c>
+      <c r="I40" s="5">
+        <v>4.7240000000000002</v>
+      </c>
+      <c r="J40" s="5">
+        <v>79.048000000000002</v>
+      </c>
+      <c r="K40" s="5">
+        <v>17.731999999999999</v>
+      </c>
+      <c r="L40" s="5">
+        <v>132.374</v>
+      </c>
+      <c r="M40" s="5">
+        <v>67.096999999999994</v>
+      </c>
+      <c r="N40" s="5">
+        <v>142.06299999999999</v>
+      </c>
+      <c r="O40" s="5">
+        <v>71.201999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18">
+      <c r="A41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="5">
+        <v>14.311</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.497</v>
+      </c>
+      <c r="D41" s="5">
+        <v>72.915000000000006</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30.731000000000002</v>
+      </c>
+      <c r="F41" s="5">
+        <v>66.391000000000005</v>
+      </c>
+      <c r="G41" s="5">
+        <v>23.786999999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>121.83499999999999</v>
+      </c>
+      <c r="I41" s="5">
+        <v>5.8579999999999997</v>
+      </c>
+      <c r="J41" s="5">
+        <v>161.02799999999999</v>
+      </c>
+      <c r="K41" s="5">
+        <v>25.992999999999999</v>
+      </c>
+      <c r="L41" s="5">
+        <v>272.90800000000002</v>
+      </c>
+      <c r="M41" s="5">
+        <v>157.39099999999999</v>
+      </c>
+      <c r="N41" s="5">
+        <v>291.68099999999998</v>
+      </c>
+      <c r="O41" s="5">
+        <v>148.71600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="5">
+        <v>10.093999999999999</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D42" s="5">
+        <v>40.343000000000004</v>
+      </c>
+      <c r="E42" s="5">
+        <v>15.436</v>
+      </c>
+      <c r="F42" s="5">
+        <v>46.228999999999999</v>
+      </c>
+      <c r="G42" s="5">
+        <v>17.036999999999999</v>
+      </c>
+      <c r="H42" s="5">
+        <v>70.668999999999997</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>77.001000000000005</v>
+      </c>
+      <c r="K42" s="5">
+        <v>16.241</v>
+      </c>
+      <c r="L42" s="5">
+        <v>128.91300000000001</v>
+      </c>
+      <c r="M42" s="5">
+        <v>68.957999999999998</v>
+      </c>
+      <c r="N42" s="5">
+        <v>122.10899999999999</v>
+      </c>
+      <c r="O42" s="5">
+        <v>81.725999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18">
+      <c r="A43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1.653</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D43" s="5">
+        <v>12.525</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5.6449999999999996</v>
+      </c>
+      <c r="F43" s="5">
+        <v>14.457000000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5.4989999999999997</v>
+      </c>
+      <c r="H43" s="5">
+        <v>17.347000000000001</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="J43" s="5">
+        <v>14.335000000000001</v>
+      </c>
+      <c r="K43" s="5">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="L43" s="5">
+        <v>25.015000000000001</v>
+      </c>
+      <c r="M43" s="5">
+        <v>3.6680000000000001</v>
+      </c>
+      <c r="N43" s="5">
+        <v>16.721</v>
+      </c>
+      <c r="O43" s="5">
+        <v>5.0129999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18">
+      <c r="A44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D44" s="5">
+        <v>13.497999999999999</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="F44" s="5">
+        <v>13.709</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="H44" s="5">
+        <v>16.481999999999999</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J44" s="5">
+        <v>17.895</v>
+      </c>
+      <c r="K44" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="L44" s="5">
+        <v>22.065999999999999</v>
+      </c>
+      <c r="M44" s="5">
+        <v>3.234</v>
+      </c>
+      <c r="N44" s="5">
+        <v>14.49</v>
+      </c>
+      <c r="O44" s="5">
+        <v>4.3940000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="5">
+        <v>12.587</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D45" s="5">
+        <v>53.334000000000003</v>
+      </c>
+      <c r="E45" s="5">
+        <v>19.670999999999999</v>
+      </c>
+      <c r="F45" s="5">
+        <v>57.789000000000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>23.064</v>
+      </c>
+      <c r="H45" s="5">
+        <v>94.808999999999997</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>100.61</v>
+      </c>
+      <c r="K45" s="5">
+        <v>22.498999999999999</v>
+      </c>
+      <c r="L45" s="5">
+        <v>238.12799999999999</v>
+      </c>
+      <c r="M45" s="5">
+        <v>62.088999999999999</v>
+      </c>
+      <c r="N45" s="5">
+        <v>238.28399999999999</v>
+      </c>
+      <c r="O45" s="5">
+        <v>120.157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE855291-5954-5741-9E77-8C2CEA7BABE9}">
   <dimension ref="A1:M46"/>
   <sheetViews>
@@ -13548,7 +15620,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="50" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13564,36 +15636,36 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -15375,2096 +17447,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66351A1-E227-224B-A3D4-1AE12B361F74}">
-  <dimension ref="A1:O45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="15" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="50" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="22">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" ht="22">
-      <c r="A3" s="18"/>
-      <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3.871</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>18.445</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.59</v>
-      </c>
-      <c r="F4" s="5">
-        <v>21.311</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7.1269999999999998</v>
-      </c>
-      <c r="H4" s="5">
-        <v>28.15</v>
-      </c>
-      <c r="I4" s="5">
-        <v>4.1180000000000003</v>
-      </c>
-      <c r="J4" s="5">
-        <v>28.4</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4.6779999999999999</v>
-      </c>
-      <c r="L4" s="5">
-        <v>40.497</v>
-      </c>
-      <c r="M4" s="5">
-        <v>15.71</v>
-      </c>
-      <c r="N4" s="5">
-        <v>36.813000000000002</v>
-      </c>
-      <c r="O4" s="5">
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2.2269999999999999</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>15.342000000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6.31</v>
-      </c>
-      <c r="F5" s="5">
-        <v>18.216000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5.9969999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>21.617000000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2.7789999999999999</v>
-      </c>
-      <c r="J5" s="5">
-        <v>19.998000000000001</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2.9710000000000001</v>
-      </c>
-      <c r="L5" s="5">
-        <v>24.995999999999999</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6.3520000000000003</v>
-      </c>
-      <c r="N5" s="5">
-        <v>23.213999999999999</v>
-      </c>
-      <c r="O5" s="5">
-        <v>7.2249999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4.3280000000000003</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D6" s="5">
-        <v>23.902000000000001</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8.8559999999999999</v>
-      </c>
-      <c r="F6" s="5">
-        <v>26.606000000000002</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="H6" s="5">
-        <v>38.593000000000004</v>
-      </c>
-      <c r="I6" s="5">
-        <v>6.577</v>
-      </c>
-      <c r="J6" s="5">
-        <v>34.271000000000001</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4.9710000000000001</v>
-      </c>
-      <c r="L6" s="5">
-        <v>51.566000000000003</v>
-      </c>
-      <c r="M6" s="5">
-        <v>19.72</v>
-      </c>
-      <c r="N6" s="5">
-        <v>49.406999999999996</v>
-      </c>
-      <c r="O6" s="5">
-        <v>20.233000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>11.526999999999999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="D7" s="5">
-        <v>49.613</v>
-      </c>
-      <c r="E7" s="5">
-        <v>21.175000000000001</v>
-      </c>
-      <c r="F7" s="5">
-        <v>51.579000000000001</v>
-      </c>
-      <c r="G7" s="5">
-        <v>21.021000000000001</v>
-      </c>
-      <c r="H7" s="5">
-        <v>79.686000000000007</v>
-      </c>
-      <c r="I7" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="J7" s="5">
-        <v>90.516000000000005</v>
-      </c>
-      <c r="K7" s="5">
-        <v>21.437999999999999</v>
-      </c>
-      <c r="L7" s="5">
-        <v>171.95599999999999</v>
-      </c>
-      <c r="M7" s="5">
-        <v>92.555999999999997</v>
-      </c>
-      <c r="N7" s="5">
-        <v>188.30600000000001</v>
-      </c>
-      <c r="O7" s="5">
-        <v>114.559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10.785</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.378</v>
-      </c>
-      <c r="D8" s="5">
-        <v>46.814</v>
-      </c>
-      <c r="E8" s="5">
-        <v>16.388000000000002</v>
-      </c>
-      <c r="F8" s="5">
-        <v>49.354999999999997</v>
-      </c>
-      <c r="G8" s="5">
-        <v>20.181999999999999</v>
-      </c>
-      <c r="H8" s="5">
-        <v>75.863</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6.19</v>
-      </c>
-      <c r="J8" s="5">
-        <v>87.932000000000002</v>
-      </c>
-      <c r="K8" s="5">
-        <v>20.974</v>
-      </c>
-      <c r="L8" s="5">
-        <v>155.29</v>
-      </c>
-      <c r="M8" s="5">
-        <v>82.343000000000004</v>
-      </c>
-      <c r="N8" s="5">
-        <v>178.857</v>
-      </c>
-      <c r="O8" s="5">
-        <v>104.313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>10.269</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>42.31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>15.888</v>
-      </c>
-      <c r="F9" s="5">
-        <v>45.573999999999998</v>
-      </c>
-      <c r="G9" s="5">
-        <v>18.940999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>71.33</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3.83</v>
-      </c>
-      <c r="J9" s="5">
-        <v>78.772000000000006</v>
-      </c>
-      <c r="K9" s="5">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L9" s="5">
-        <v>141.334</v>
-      </c>
-      <c r="M9" s="5">
-        <v>76.513999999999996</v>
-      </c>
-      <c r="N9" s="5">
-        <v>176.09399999999999</v>
-      </c>
-      <c r="O9" s="5">
-        <v>99.637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>8.8079999999999998</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="D10" s="5">
-        <v>33.575000000000003</v>
-      </c>
-      <c r="E10" s="5">
-        <v>13.244999999999999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>34.804000000000002</v>
-      </c>
-      <c r="G10" s="5">
-        <v>14.010999999999999</v>
-      </c>
-      <c r="H10" s="5">
-        <v>52.695</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4.9279999999999999</v>
-      </c>
-      <c r="J10" s="5">
-        <v>52.682000000000002</v>
-      </c>
-      <c r="K10" s="5">
-        <v>9.3819999999999997</v>
-      </c>
-      <c r="L10" s="5">
-        <v>80.433000000000007</v>
-      </c>
-      <c r="M10" s="5">
-        <v>31.454999999999998</v>
-      </c>
-      <c r="N10" s="5">
-        <v>123.36799999999999</v>
-      </c>
-      <c r="O10" s="5">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
-        <v>17.608000000000001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="D11" s="5">
-        <v>101.03100000000001</v>
-      </c>
-      <c r="E11" s="5">
-        <v>36.853999999999999</v>
-      </c>
-      <c r="F11" s="5">
-        <v>85.347999999999999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>32.542000000000002</v>
-      </c>
-      <c r="H11" s="5">
-        <v>184.328</v>
-      </c>
-      <c r="I11" s="5">
-        <v>41.423000000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>230.57900000000001</v>
-      </c>
-      <c r="K11" s="5">
-        <v>37.398000000000003</v>
-      </c>
-      <c r="L11" s="5">
-        <v>362.19200000000001</v>
-      </c>
-      <c r="M11" s="5">
-        <v>190.77199999999999</v>
-      </c>
-      <c r="N11" s="5">
-        <v>449.738</v>
-      </c>
-      <c r="O11" s="5">
-        <v>183.08500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10.108000000000001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.745</v>
-      </c>
-      <c r="D12" s="5">
-        <v>42.073</v>
-      </c>
-      <c r="E12" s="5">
-        <v>15.351000000000001</v>
-      </c>
-      <c r="F12" s="5">
-        <v>46.213000000000001</v>
-      </c>
-      <c r="G12" s="5">
-        <v>17.876000000000001</v>
-      </c>
-      <c r="H12" s="5">
-        <v>69.801000000000002</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4.18</v>
-      </c>
-      <c r="J12" s="5">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="K12" s="5">
-        <v>15.228999999999999</v>
-      </c>
-      <c r="L12" s="5">
-        <v>156.375</v>
-      </c>
-      <c r="M12" s="5">
-        <v>87.96</v>
-      </c>
-      <c r="N12" s="5">
-        <v>157.14699999999999</v>
-      </c>
-      <c r="O12" s="5">
-        <v>77.043999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2.7469999999999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>16.388999999999999</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5.673</v>
-      </c>
-      <c r="F13" s="5">
-        <v>19.143999999999998</v>
-      </c>
-      <c r="G13" s="5">
-        <v>6.2619999999999996</v>
-      </c>
-      <c r="H13" s="5">
-        <v>24.213000000000001</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="J13" s="5">
-        <v>22.617000000000001</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.67</v>
-      </c>
-      <c r="L13" s="5">
-        <v>31.484000000000002</v>
-      </c>
-      <c r="M13" s="5">
-        <v>10.532999999999999</v>
-      </c>
-      <c r="N13" s="5">
-        <v>31.016999999999999</v>
-      </c>
-      <c r="O13" s="5">
-        <v>8.8040000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <v>9.3960000000000008</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>34.570999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>38.396999999999998</v>
-      </c>
-      <c r="G14" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="H14" s="5">
-        <v>56.197000000000003</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4.9109999999999996</v>
-      </c>
-      <c r="J14" s="5">
-        <v>57.616999999999997</v>
-      </c>
-      <c r="K14" s="5">
-        <v>8.1760000000000002</v>
-      </c>
-      <c r="L14" s="5">
-        <v>90.58</v>
-      </c>
-      <c r="M14" s="5">
-        <v>37.423999999999999</v>
-      </c>
-      <c r="N14" s="5">
-        <v>139.107</v>
-      </c>
-      <c r="O14" s="5">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>12.097</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.121</v>
-      </c>
-      <c r="D15" s="5">
-        <v>56.478000000000002</v>
-      </c>
-      <c r="E15" s="5">
-        <v>21.416</v>
-      </c>
-      <c r="F15" s="5">
-        <v>60.027999999999999</v>
-      </c>
-      <c r="G15" s="5">
-        <v>23.337</v>
-      </c>
-      <c r="H15" s="5">
-        <v>96.474999999999994</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3.242</v>
-      </c>
-      <c r="J15" s="5">
-        <v>116.021</v>
-      </c>
-      <c r="K15" s="5">
-        <v>22.742999999999999</v>
-      </c>
-      <c r="L15" s="5">
-        <v>206.81200000000001</v>
-      </c>
-      <c r="M15" s="5">
-        <v>116.18899999999999</v>
-      </c>
-      <c r="N15" s="5">
-        <v>252.64400000000001</v>
-      </c>
-      <c r="O15" s="5">
-        <v>139.43199999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14.167999999999999</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="D16" s="5">
-        <v>71.090999999999994</v>
-      </c>
-      <c r="E16" s="5">
-        <v>27.477</v>
-      </c>
-      <c r="F16" s="5">
-        <v>67.290999999999997</v>
-      </c>
-      <c r="G16" s="5">
-        <v>24.533999999999999</v>
-      </c>
-      <c r="H16" s="5">
-        <v>119.399</v>
-      </c>
-      <c r="I16" s="5">
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="J16" s="5">
-        <v>162.88800000000001</v>
-      </c>
-      <c r="K16" s="5">
-        <v>31.326000000000001</v>
-      </c>
-      <c r="L16" s="5">
-        <v>297.74200000000002</v>
-      </c>
-      <c r="M16" s="5">
-        <v>182.84200000000001</v>
-      </c>
-      <c r="N16" s="5">
-        <v>358.91</v>
-      </c>
-      <c r="O16" s="5">
-        <v>182.91499999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5">
-        <v>13.673</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>67.58</v>
-      </c>
-      <c r="E17" s="5">
-        <v>25.835999999999999</v>
-      </c>
-      <c r="F17" s="5">
-        <v>65.152000000000001</v>
-      </c>
-      <c r="G17" s="5">
-        <v>23.187000000000001</v>
-      </c>
-      <c r="H17" s="5">
-        <v>115.166</v>
-      </c>
-      <c r="I17" s="5">
-        <v>2.7879999999999998</v>
-      </c>
-      <c r="J17" s="5">
-        <v>158.279</v>
-      </c>
-      <c r="K17" s="5">
-        <v>29.667999999999999</v>
-      </c>
-      <c r="L17" s="5">
-        <v>287.78399999999999</v>
-      </c>
-      <c r="M17" s="5">
-        <v>176.87100000000001</v>
-      </c>
-      <c r="N17" s="5">
-        <v>325.161</v>
-      </c>
-      <c r="O17" s="5">
-        <v>176.30500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="18">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5">
-        <v>13.952999999999999</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.497</v>
-      </c>
-      <c r="D18" s="5">
-        <v>65.573999999999998</v>
-      </c>
-      <c r="E18" s="5">
-        <v>24.878</v>
-      </c>
-      <c r="F18" s="5">
-        <v>63.295999999999999</v>
-      </c>
-      <c r="G18" s="5">
-        <v>23.398</v>
-      </c>
-      <c r="H18" s="5">
-        <v>114.889</v>
-      </c>
-      <c r="I18" s="5">
-        <v>5.0350000000000001</v>
-      </c>
-      <c r="J18" s="5">
-        <v>154.12299999999999</v>
-      </c>
-      <c r="K18" s="5">
-        <v>28.844999999999999</v>
-      </c>
-      <c r="L18" s="5">
-        <v>258.20999999999998</v>
-      </c>
-      <c r="M18" s="5">
-        <v>146.792</v>
-      </c>
-      <c r="N18" s="5">
-        <v>307.512</v>
-      </c>
-      <c r="O18" s="5">
-        <v>178.05199999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="18">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5">
-        <v>14.49</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.204</v>
-      </c>
-      <c r="D19" s="5">
-        <v>67.364000000000004</v>
-      </c>
-      <c r="E19" s="5">
-        <v>25.881</v>
-      </c>
-      <c r="F19" s="5">
-        <v>66.941999999999993</v>
-      </c>
-      <c r="G19" s="5">
-        <v>24.245000000000001</v>
-      </c>
-      <c r="H19" s="5">
-        <v>120.274</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="J19" s="5">
-        <v>164.203</v>
-      </c>
-      <c r="K19" s="5">
-        <v>24.904</v>
-      </c>
-      <c r="L19" s="5">
-        <v>263.654</v>
-      </c>
-      <c r="M19" s="5">
-        <v>146.09399999999999</v>
-      </c>
-      <c r="N19" s="5">
-        <v>354.10899999999998</v>
-      </c>
-      <c r="O19" s="5">
-        <v>178.441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="18">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5">
-        <v>8.0990000000000002</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="D20" s="5">
-        <v>30.283000000000001</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10.398999999999999</v>
-      </c>
-      <c r="F20" s="5">
-        <v>33.948999999999998</v>
-      </c>
-      <c r="G20" s="5">
-        <v>12.331</v>
-      </c>
-      <c r="H20" s="5">
-        <v>48.415999999999997</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5.4109999999999996</v>
-      </c>
-      <c r="J20" s="5">
-        <v>50.753</v>
-      </c>
-      <c r="K20" s="5">
-        <v>7.3230000000000004</v>
-      </c>
-      <c r="L20" s="5">
-        <v>71.906000000000006</v>
-      </c>
-      <c r="M20" s="5">
-        <v>24.584</v>
-      </c>
-      <c r="N20" s="5">
-        <v>79.933999999999997</v>
-      </c>
-      <c r="O20" s="5">
-        <v>29.210999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="18">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8.9990000000000006</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="D21" s="5">
-        <v>32.384</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10.795999999999999</v>
-      </c>
-      <c r="F21" s="5">
-        <v>36.055</v>
-      </c>
-      <c r="G21" s="5">
-        <v>14.585000000000001</v>
-      </c>
-      <c r="H21" s="5">
-        <v>53.648000000000003</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5.3860000000000001</v>
-      </c>
-      <c r="J21" s="5">
-        <v>55.890999999999998</v>
-      </c>
-      <c r="K21" s="5">
-        <v>8.16</v>
-      </c>
-      <c r="L21" s="5">
-        <v>81.384</v>
-      </c>
-      <c r="M21" s="5">
-        <v>30.016999999999999</v>
-      </c>
-      <c r="N21" s="5">
-        <v>127.626</v>
-      </c>
-      <c r="O21" s="5">
-        <v>68.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5">
-        <v>9.82</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D22" s="5">
-        <v>42.558999999999997</v>
-      </c>
-      <c r="E22" s="5">
-        <v>16.489000000000001</v>
-      </c>
-      <c r="F22" s="5">
-        <v>45.558</v>
-      </c>
-      <c r="G22" s="5">
-        <v>18.687000000000001</v>
-      </c>
-      <c r="H22" s="5">
-        <v>72.274000000000001</v>
-      </c>
-      <c r="I22" s="5">
-        <v>2.355</v>
-      </c>
-      <c r="J22" s="5">
-        <v>81.893000000000001</v>
-      </c>
-      <c r="K22" s="5">
-        <v>15.7</v>
-      </c>
-      <c r="L22" s="5">
-        <v>122.127</v>
-      </c>
-      <c r="M22" s="5">
-        <v>56.405000000000001</v>
-      </c>
-      <c r="N22" s="5">
-        <v>178.55199999999999</v>
-      </c>
-      <c r="O22" s="5">
-        <v>97.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5">
-        <v>11.048999999999999</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="D23" s="5">
-        <v>47.676000000000002</v>
-      </c>
-      <c r="E23" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>51.164999999999999</v>
-      </c>
-      <c r="G23" s="5">
-        <v>21.082000000000001</v>
-      </c>
-      <c r="H23" s="5">
-        <v>81.325000000000003</v>
-      </c>
-      <c r="I23" s="5">
-        <v>4.8680000000000003</v>
-      </c>
-      <c r="J23" s="5">
-        <v>93.111999999999995</v>
-      </c>
-      <c r="K23" s="5">
-        <v>20.8</v>
-      </c>
-      <c r="L23" s="5">
-        <v>167.13200000000001</v>
-      </c>
-      <c r="M23" s="5">
-        <v>91.444999999999993</v>
-      </c>
-      <c r="N23" s="5">
-        <v>203.154</v>
-      </c>
-      <c r="O23" s="5">
-        <v>112.779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
-        <v>13.327999999999999</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D24" s="5">
-        <v>63.29</v>
-      </c>
-      <c r="E24" s="5">
-        <v>25.364999999999998</v>
-      </c>
-      <c r="F24" s="5">
-        <v>60.222999999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <v>23.178999999999998</v>
-      </c>
-      <c r="H24" s="5">
-        <v>108.54</v>
-      </c>
-      <c r="I24" s="5">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="J24" s="5">
-        <v>137.364</v>
-      </c>
-      <c r="K24" s="5">
-        <v>22.297000000000001</v>
-      </c>
-      <c r="L24" s="5">
-        <v>234.131</v>
-      </c>
-      <c r="M24" s="5">
-        <v>142.85300000000001</v>
-      </c>
-      <c r="N24" s="5">
-        <v>292.79500000000002</v>
-      </c>
-      <c r="O24" s="5">
-        <v>167.863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="18">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5">
-        <v>14.67</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.497</v>
-      </c>
-      <c r="D25" s="5">
-        <v>72.171999999999997</v>
-      </c>
-      <c r="E25" s="5">
-        <v>29.835000000000001</v>
-      </c>
-      <c r="F25" s="5">
-        <v>66.486999999999995</v>
-      </c>
-      <c r="G25" s="5">
-        <v>25.344000000000001</v>
-      </c>
-      <c r="H25" s="5">
-        <v>123.09399999999999</v>
-      </c>
-      <c r="I25" s="5">
-        <v>7.7489999999999997</v>
-      </c>
-      <c r="J25" s="5">
-        <v>165.642</v>
-      </c>
-      <c r="K25" s="5">
-        <v>29.187000000000001</v>
-      </c>
-      <c r="L25" s="5">
-        <v>280.76100000000002</v>
-      </c>
-      <c r="M25" s="5">
-        <v>157.23500000000001</v>
-      </c>
-      <c r="N25" s="5">
-        <v>361.81599999999997</v>
-      </c>
-      <c r="O25" s="5">
-        <v>187.12100000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="18">
-      <c r="A26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5">
-        <v>14.355</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="D26" s="5">
-        <v>69.983999999999995</v>
-      </c>
-      <c r="E26" s="5">
-        <v>30.045999999999999</v>
-      </c>
-      <c r="F26" s="5">
-        <v>65.543000000000006</v>
-      </c>
-      <c r="G26" s="5">
-        <v>25.273</v>
-      </c>
-      <c r="H26" s="5">
-        <v>121.117</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5.54</v>
-      </c>
-      <c r="J26" s="5">
-        <v>161.16300000000001</v>
-      </c>
-      <c r="K26" s="5">
-        <v>33.503999999999998</v>
-      </c>
-      <c r="L26" s="5">
-        <v>267.43</v>
-      </c>
-      <c r="M26" s="5">
-        <v>154.17099999999999</v>
-      </c>
-      <c r="N26" s="5">
-        <v>329.13299999999998</v>
-      </c>
-      <c r="O26" s="5">
-        <v>161.172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="18">
-      <c r="A27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5">
-        <v>14.991</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="D27" s="5">
-        <v>73.599000000000004</v>
-      </c>
-      <c r="E27" s="5">
-        <v>31.417999999999999</v>
-      </c>
-      <c r="F27" s="5">
-        <v>69.37</v>
-      </c>
-      <c r="G27" s="5">
-        <v>26.48</v>
-      </c>
-      <c r="H27" s="5">
-        <v>116.866</v>
-      </c>
-      <c r="I27" s="5">
-        <v>39.341999999999999</v>
-      </c>
-      <c r="J27" s="5">
-        <v>174.94900000000001</v>
-      </c>
-      <c r="K27" s="5">
-        <v>28.091000000000001</v>
-      </c>
-      <c r="L27" s="5">
-        <v>268.36599999999999</v>
-      </c>
-      <c r="M27" s="5">
-        <v>156.95099999999999</v>
-      </c>
-      <c r="N27" s="5">
-        <v>332.44200000000001</v>
-      </c>
-      <c r="O27" s="5">
-        <v>156.14400000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="18">
-      <c r="A28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5">
-        <v>13.510999999999999</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="D28" s="5">
-        <v>64.873000000000005</v>
-      </c>
-      <c r="E28" s="5">
-        <v>27.411000000000001</v>
-      </c>
-      <c r="F28" s="5">
-        <v>61.960999999999999</v>
-      </c>
-      <c r="G28" s="5">
-        <v>23.484000000000002</v>
-      </c>
-      <c r="H28" s="5">
-        <v>111.727</v>
-      </c>
-      <c r="I28" s="5">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="J28" s="5">
-        <v>152.34899999999999</v>
-      </c>
-      <c r="K28" s="5">
-        <v>28.155000000000001</v>
-      </c>
-      <c r="L28" s="5">
-        <v>249.13399999999999</v>
-      </c>
-      <c r="M28" s="5">
-        <v>144.38300000000001</v>
-      </c>
-      <c r="N28" s="5">
-        <v>265.58300000000003</v>
-      </c>
-      <c r="O28" s="5">
-        <v>155.00700000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="18">
-      <c r="A29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3.532</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="D29" s="5">
-        <v>18.061</v>
-      </c>
-      <c r="E29" s="5">
-        <v>8.8160000000000007</v>
-      </c>
-      <c r="F29" s="5">
-        <v>19.673999999999999</v>
-      </c>
-      <c r="G29" s="5">
-        <v>6.3559999999999999</v>
-      </c>
-      <c r="H29" s="5">
-        <v>27.076000000000001</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2.492</v>
-      </c>
-      <c r="J29" s="5">
-        <v>26.106000000000002</v>
-      </c>
-      <c r="K29" s="5">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="L29" s="5">
-        <v>32.609000000000002</v>
-      </c>
-      <c r="M29" s="5">
-        <v>9.6349999999999998</v>
-      </c>
-      <c r="N29" s="5">
-        <v>31.423999999999999</v>
-      </c>
-      <c r="O29" s="5">
-        <v>9.8640000000000008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="18">
-      <c r="A30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="5">
-        <v>10.106999999999999</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="D30" s="5">
-        <v>38.137999999999998</v>
-      </c>
-      <c r="E30" s="5">
-        <v>16.702000000000002</v>
-      </c>
-      <c r="F30" s="5">
-        <v>42.633000000000003</v>
-      </c>
-      <c r="G30" s="5">
-        <v>15.868</v>
-      </c>
-      <c r="H30" s="5">
-        <v>65.680999999999997</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="J30" s="5">
-        <v>72.412999999999997</v>
-      </c>
-      <c r="K30" s="5">
-        <v>16.71</v>
-      </c>
-      <c r="L30" s="5">
-        <v>107.221</v>
-      </c>
-      <c r="M30" s="5">
-        <v>45.744999999999997</v>
-      </c>
-      <c r="N30" s="5">
-        <v>125.006</v>
-      </c>
-      <c r="O30" s="5">
-        <v>62.085999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18">
-      <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="5">
-        <v>8.2590000000000003</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.228</v>
-      </c>
-      <c r="D31" s="5">
-        <v>31.332999999999998</v>
-      </c>
-      <c r="E31" s="5">
-        <v>11.429</v>
-      </c>
-      <c r="F31" s="5">
-        <v>34.680999999999997</v>
-      </c>
-      <c r="G31" s="5">
-        <v>11.77</v>
-      </c>
-      <c r="H31" s="5">
-        <v>51.982999999999997</v>
-      </c>
-      <c r="I31" s="5">
-        <v>4.6390000000000002</v>
-      </c>
-      <c r="J31" s="5">
-        <v>51.156999999999996</v>
-      </c>
-      <c r="K31" s="5">
-        <v>8.702</v>
-      </c>
-      <c r="L31" s="5">
-        <v>79.400999999999996</v>
-      </c>
-      <c r="M31" s="5">
-        <v>31.495000000000001</v>
-      </c>
-      <c r="N31" s="5">
-        <v>69.804000000000002</v>
-      </c>
-      <c r="O31" s="5">
-        <v>21.497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="18">
-      <c r="A32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="5">
-        <v>7.6059999999999999</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D32" s="5">
-        <v>26.315000000000001</v>
-      </c>
-      <c r="E32" s="5">
-        <v>8.7769999999999992</v>
-      </c>
-      <c r="F32" s="5">
-        <v>30.638000000000002</v>
-      </c>
-      <c r="G32" s="5">
-        <v>11.004</v>
-      </c>
-      <c r="H32" s="5">
-        <v>44.625</v>
-      </c>
-      <c r="I32" s="5">
-        <v>4.165</v>
-      </c>
-      <c r="J32" s="5">
-        <v>44.534999999999997</v>
-      </c>
-      <c r="K32" s="5">
-        <v>8.0709999999999997</v>
-      </c>
-      <c r="L32" s="5">
-        <v>63.402999999999999</v>
-      </c>
-      <c r="M32" s="5">
-        <v>23.116</v>
-      </c>
-      <c r="N32" s="5">
-        <v>64.051000000000002</v>
-      </c>
-      <c r="O32" s="5">
-        <v>21.864000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="18">
-      <c r="A33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="5">
-        <v>9.6969999999999992</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="D33" s="5">
-        <v>41.557000000000002</v>
-      </c>
-      <c r="E33" s="5">
-        <v>17.532</v>
-      </c>
-      <c r="F33" s="5">
-        <v>46.097000000000001</v>
-      </c>
-      <c r="G33" s="5">
-        <v>17.68</v>
-      </c>
-      <c r="H33" s="5">
-        <v>72.078000000000003</v>
-      </c>
-      <c r="I33" s="5">
-        <v>4.226</v>
-      </c>
-      <c r="J33" s="5">
-        <v>79.438000000000002</v>
-      </c>
-      <c r="K33" s="5">
-        <v>18.341000000000001</v>
-      </c>
-      <c r="L33" s="5">
-        <v>128.52500000000001</v>
-      </c>
-      <c r="M33" s="5">
-        <v>60.588999999999999</v>
-      </c>
-      <c r="N33" s="5">
-        <v>141.24299999999999</v>
-      </c>
-      <c r="O33" s="5">
-        <v>66.465000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="18">
-      <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="5">
-        <v>7.8959999999999999</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="D34" s="5">
-        <v>27.876999999999999</v>
-      </c>
-      <c r="E34" s="5">
-        <v>10.962999999999999</v>
-      </c>
-      <c r="F34" s="5">
-        <v>30.855</v>
-      </c>
-      <c r="G34" s="5">
-        <v>11.305</v>
-      </c>
-      <c r="H34" s="5">
-        <v>43.414999999999999</v>
-      </c>
-      <c r="I34" s="5">
-        <v>5.2050000000000001</v>
-      </c>
-      <c r="J34" s="5">
-        <v>44.338999999999999</v>
-      </c>
-      <c r="K34" s="5">
-        <v>7.8769999999999998</v>
-      </c>
-      <c r="L34" s="5">
-        <v>61.963000000000001</v>
-      </c>
-      <c r="M34" s="5">
-        <v>21.731000000000002</v>
-      </c>
-      <c r="N34" s="5">
-        <v>65.525000000000006</v>
-      </c>
-      <c r="O34" s="5">
-        <v>22.637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="18">
-      <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="5">
-        <v>12.348000000000001</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="D35" s="5">
-        <v>62.393999999999998</v>
-      </c>
-      <c r="E35" s="5">
-        <v>26.335999999999999</v>
-      </c>
-      <c r="F35" s="5">
-        <v>61.984000000000002</v>
-      </c>
-      <c r="G35" s="5">
-        <v>25.106999999999999</v>
-      </c>
-      <c r="H35" s="5">
-        <v>107.34399999999999</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2.7610000000000001</v>
-      </c>
-      <c r="J35" s="5">
-        <v>121.92100000000001</v>
-      </c>
-      <c r="K35" s="5">
-        <v>29.097999999999999</v>
-      </c>
-      <c r="L35" s="5">
-        <v>206.774</v>
-      </c>
-      <c r="M35" s="5">
-        <v>109.994</v>
-      </c>
-      <c r="N35" s="5">
-        <v>218.22</v>
-      </c>
-      <c r="O35" s="5">
-        <v>113.961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="18">
-      <c r="A36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="5">
-        <v>17.771999999999998</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="D36" s="5">
-        <v>99.186999999999998</v>
-      </c>
-      <c r="E36" s="5">
-        <v>41.232999999999997</v>
-      </c>
-      <c r="F36" s="5">
-        <v>83.731999999999999</v>
-      </c>
-      <c r="G36" s="5">
-        <v>32.103999999999999</v>
-      </c>
-      <c r="H36" s="5">
-        <v>200.88800000000001</v>
-      </c>
-      <c r="I36" s="5">
-        <v>52.131</v>
-      </c>
-      <c r="J36" s="5">
-        <v>223.34800000000001</v>
-      </c>
-      <c r="K36" s="5">
-        <v>36.930999999999997</v>
-      </c>
-      <c r="L36" s="5">
-        <v>364.702</v>
-      </c>
-      <c r="M36" s="5">
-        <v>207.59800000000001</v>
-      </c>
-      <c r="N36" s="5">
-        <v>381.56400000000002</v>
-      </c>
-      <c r="O36" s="5">
-        <v>148.74799999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="18">
-      <c r="A37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="5">
-        <v>11.207000000000001</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="D37" s="5">
-        <v>51.576000000000001</v>
-      </c>
-      <c r="E37" s="5">
-        <v>22.696000000000002</v>
-      </c>
-      <c r="F37" s="5">
-        <v>52.67</v>
-      </c>
-      <c r="G37" s="5">
-        <v>21.748999999999999</v>
-      </c>
-      <c r="H37" s="5">
-        <v>85.397000000000006</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.702</v>
-      </c>
-      <c r="J37" s="5">
-        <v>93.847999999999999</v>
-      </c>
-      <c r="K37" s="5">
-        <v>22.381</v>
-      </c>
-      <c r="L37" s="5">
-        <v>160.202</v>
-      </c>
-      <c r="M37" s="5">
-        <v>92.867999999999995</v>
-      </c>
-      <c r="N37" s="5">
-        <v>173.47399999999999</v>
-      </c>
-      <c r="O37" s="5">
-        <v>100.297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="18">
-      <c r="A38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="5">
-        <v>8.8450000000000006</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="D38" s="5">
-        <v>31.533999999999999</v>
-      </c>
-      <c r="E38" s="5">
-        <v>11.923</v>
-      </c>
-      <c r="F38" s="5">
-        <v>34.249000000000002</v>
-      </c>
-      <c r="G38" s="5">
-        <v>12.641999999999999</v>
-      </c>
-      <c r="H38" s="5">
-        <v>51.058</v>
-      </c>
-      <c r="I38" s="5">
-        <v>4.9740000000000002</v>
-      </c>
-      <c r="J38" s="5">
-        <v>50.655999999999999</v>
-      </c>
-      <c r="K38" s="5">
-        <v>8.5129999999999999</v>
-      </c>
-      <c r="L38" s="5">
-        <v>77.183999999999997</v>
-      </c>
-      <c r="M38" s="5">
-        <v>31.850999999999999</v>
-      </c>
-      <c r="N38" s="5">
-        <v>71.674000000000007</v>
-      </c>
-      <c r="O38" s="5">
-        <v>25.085999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="18">
-      <c r="A39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="5">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="D39" s="5">
-        <v>38.058999999999997</v>
-      </c>
-      <c r="E39" s="5">
-        <v>15.602</v>
-      </c>
-      <c r="F39" s="5">
-        <v>43.497</v>
-      </c>
-      <c r="G39" s="5">
-        <v>15.733000000000001</v>
-      </c>
-      <c r="H39" s="5">
-        <v>65.679000000000002</v>
-      </c>
-      <c r="I39" s="5">
-        <v>3.0209999999999999</v>
-      </c>
-      <c r="J39" s="5">
-        <v>72.194000000000003</v>
-      </c>
-      <c r="K39" s="5">
-        <v>15.946</v>
-      </c>
-      <c r="L39" s="5">
-        <v>112.121</v>
-      </c>
-      <c r="M39" s="5">
-        <v>57.389000000000003</v>
-      </c>
-      <c r="N39" s="5">
-        <v>143.43600000000001</v>
-      </c>
-      <c r="O39" s="5">
-        <v>79.867999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="18">
-      <c r="A40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="5">
-        <v>10.250999999999999</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D40" s="5">
-        <v>43.052999999999997</v>
-      </c>
-      <c r="E40" s="5">
-        <v>18.085999999999999</v>
-      </c>
-      <c r="F40" s="5">
-        <v>46.921999999999997</v>
-      </c>
-      <c r="G40" s="5">
-        <v>18.033000000000001</v>
-      </c>
-      <c r="H40" s="5">
-        <v>72.533000000000001</v>
-      </c>
-      <c r="I40" s="5">
-        <v>4.7240000000000002</v>
-      </c>
-      <c r="J40" s="5">
-        <v>79.048000000000002</v>
-      </c>
-      <c r="K40" s="5">
-        <v>17.731999999999999</v>
-      </c>
-      <c r="L40" s="5">
-        <v>132.374</v>
-      </c>
-      <c r="M40" s="5">
-        <v>67.096999999999994</v>
-      </c>
-      <c r="N40" s="5">
-        <v>142.06299999999999</v>
-      </c>
-      <c r="O40" s="5">
-        <v>71.201999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="18">
-      <c r="A41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="5">
-        <v>14.311</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.497</v>
-      </c>
-      <c r="D41" s="5">
-        <v>72.915000000000006</v>
-      </c>
-      <c r="E41" s="5">
-        <v>30.731000000000002</v>
-      </c>
-      <c r="F41" s="5">
-        <v>66.391000000000005</v>
-      </c>
-      <c r="G41" s="5">
-        <v>23.786999999999999</v>
-      </c>
-      <c r="H41" s="5">
-        <v>121.83499999999999</v>
-      </c>
-      <c r="I41" s="5">
-        <v>5.8579999999999997</v>
-      </c>
-      <c r="J41" s="5">
-        <v>161.02799999999999</v>
-      </c>
-      <c r="K41" s="5">
-        <v>25.992999999999999</v>
-      </c>
-      <c r="L41" s="5">
-        <v>272.90800000000002</v>
-      </c>
-      <c r="M41" s="5">
-        <v>157.39099999999999</v>
-      </c>
-      <c r="N41" s="5">
-        <v>291.68099999999998</v>
-      </c>
-      <c r="O41" s="5">
-        <v>148.71600000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="18">
-      <c r="A42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="5">
-        <v>10.093999999999999</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="D42" s="5">
-        <v>40.343000000000004</v>
-      </c>
-      <c r="E42" s="5">
-        <v>15.436</v>
-      </c>
-      <c r="F42" s="5">
-        <v>46.228999999999999</v>
-      </c>
-      <c r="G42" s="5">
-        <v>17.036999999999999</v>
-      </c>
-      <c r="H42" s="5">
-        <v>70.668999999999997</v>
-      </c>
-      <c r="I42" s="5">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="J42" s="5">
-        <v>77.001000000000005</v>
-      </c>
-      <c r="K42" s="5">
-        <v>16.241</v>
-      </c>
-      <c r="L42" s="5">
-        <v>128.91300000000001</v>
-      </c>
-      <c r="M42" s="5">
-        <v>68.957999999999998</v>
-      </c>
-      <c r="N42" s="5">
-        <v>122.10899999999999</v>
-      </c>
-      <c r="O42" s="5">
-        <v>81.725999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="18">
-      <c r="A43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1.653</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D43" s="5">
-        <v>12.525</v>
-      </c>
-      <c r="E43" s="5">
-        <v>5.6449999999999996</v>
-      </c>
-      <c r="F43" s="5">
-        <v>14.457000000000001</v>
-      </c>
-      <c r="G43" s="5">
-        <v>5.4989999999999997</v>
-      </c>
-      <c r="H43" s="5">
-        <v>17.347000000000001</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="J43" s="5">
-        <v>14.335000000000001</v>
-      </c>
-      <c r="K43" s="5">
-        <v>2.8010000000000002</v>
-      </c>
-      <c r="L43" s="5">
-        <v>25.015000000000001</v>
-      </c>
-      <c r="M43" s="5">
-        <v>3.6680000000000001</v>
-      </c>
-      <c r="N43" s="5">
-        <v>16.721</v>
-      </c>
-      <c r="O43" s="5">
-        <v>5.0129999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="18">
-      <c r="A44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D44" s="5">
-        <v>13.497999999999999</v>
-      </c>
-      <c r="E44" s="5">
-        <v>4.6920000000000002</v>
-      </c>
-      <c r="F44" s="5">
-        <v>13.709</v>
-      </c>
-      <c r="G44" s="5">
-        <v>5.1890000000000001</v>
-      </c>
-      <c r="H44" s="5">
-        <v>16.481999999999999</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="J44" s="5">
-        <v>17.895</v>
-      </c>
-      <c r="K44" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="L44" s="5">
-        <v>22.065999999999999</v>
-      </c>
-      <c r="M44" s="5">
-        <v>3.234</v>
-      </c>
-      <c r="N44" s="5">
-        <v>14.49</v>
-      </c>
-      <c r="O44" s="5">
-        <v>4.3940000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="18">
-      <c r="A45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="5">
-        <v>12.587</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="D45" s="5">
-        <v>53.334000000000003</v>
-      </c>
-      <c r="E45" s="5">
-        <v>19.670999999999999</v>
-      </c>
-      <c r="F45" s="5">
-        <v>57.789000000000001</v>
-      </c>
-      <c r="G45" s="5">
-        <v>23.064</v>
-      </c>
-      <c r="H45" s="5">
-        <v>94.808999999999997</v>
-      </c>
-      <c r="I45" s="5">
-        <v>2.9079999999999999</v>
-      </c>
-      <c r="J45" s="5">
-        <v>100.61</v>
-      </c>
-      <c r="K45" s="5">
-        <v>22.498999999999999</v>
-      </c>
-      <c r="L45" s="5">
-        <v>238.12799999999999</v>
-      </c>
-      <c r="M45" s="5">
-        <v>62.088999999999999</v>
-      </c>
-      <c r="N45" s="5">
-        <v>238.28399999999999</v>
-      </c>
-      <c r="O45" s="5">
-        <v>120.157</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17494,7 +17476,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="50" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="22" customHeight="1">

--- a/SuppleMaterials.xlsx
+++ b/SuppleMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnan/Documents/当前在研的所有项目/项目1-1-转录组数据分类/scKSFD/第3次投稿-PCB-20250501投稿/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnan/Documents/当前在研的所有项目/项目1-1-转录组数据分类/scKSFD/第3次投稿-IEEE_TCBB-20250501投稿/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE12E4F-4F06-5D45-8DE4-4B047DDCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA26FCC-7955-0344-B1AE-2362C28AF115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2482E374-9C3D-F349-81DD-234A0420BFFA}"/>
+    <workbookView xWindow="1420" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2482E374-9C3D-F349-81DD-234A0420BFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_data_info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="241">
   <si>
     <t>Dataset</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -716,6 +716,144 @@
   <si>
     <t>Supplementary Table S7: Runtime Comparison (different proxy sample proportions)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML-2</t>
+  </si>
+  <si>
+    <t>AML-3</t>
+  </si>
+  <si>
+    <t>NSCLC-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSCLC-2</t>
+  </si>
+  <si>
+    <t>NSCLC-3</t>
+  </si>
+  <si>
+    <t>NSCLC-4</t>
+  </si>
+  <si>
+    <t>NSCLC-5</t>
+  </si>
+  <si>
+    <t>NB-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB-2</t>
+  </si>
+  <si>
+    <t>NB-3</t>
+  </si>
+  <si>
+    <t>NB-4</t>
+  </si>
+  <si>
+    <t>NB-5</t>
+  </si>
+  <si>
+    <t>NB-6</t>
+  </si>
+  <si>
+    <t>NB-7</t>
+  </si>
+  <si>
+    <t>NB-8</t>
+  </si>
+  <si>
+    <t>MBC-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBC-2</t>
+  </si>
+  <si>
+    <t>MBC-3</t>
+  </si>
+  <si>
+    <t>MBC-4</t>
+  </si>
+  <si>
+    <t>MBC-5</t>
+  </si>
+  <si>
+    <t>MBC-6</t>
+  </si>
+  <si>
+    <t>MBC-7</t>
+  </si>
+  <si>
+    <t>MBC-8</t>
+  </si>
+  <si>
+    <t>MBC-9</t>
+  </si>
+  <si>
+    <t>GBM-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBM-2</t>
+  </si>
+  <si>
+    <t>CLL-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLL-2</t>
+  </si>
+  <si>
+    <t>OC-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC-2</t>
+  </si>
+  <si>
+    <t>OC-3</t>
+  </si>
+  <si>
+    <t>OC-4</t>
+  </si>
+  <si>
+    <t>MM-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM-2</t>
+  </si>
+  <si>
+    <t>SARC-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SARC-2</t>
+  </si>
+  <si>
+    <t>SARC-3</t>
+  </si>
+  <si>
+    <t>SARC-4</t>
+  </si>
+  <si>
+    <t>CRC-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subfigure_Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -728,7 +866,7 @@
     <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,12 +946,6 @@
     <font>
       <sz val="17"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -870,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,25 +1024,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -949,7 +1078,7 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1457,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="58" customHeight="1">
@@ -1357,7 +1486,9 @@
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
@@ -1375,7 +1506,9 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
@@ -1393,7 +1526,9 @@
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="3" t="s">
@@ -1411,7 +1546,9 @@
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
@@ -1429,7 +1566,9 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" s="3" t="s">
@@ -1447,7 +1586,9 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="3" t="s">
@@ -1465,7 +1606,9 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18">
       <c r="A9" s="3" t="s">
@@ -1483,7 +1626,9 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18">
       <c r="A10" s="3" t="s">
@@ -1501,7 +1646,9 @@
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="A11" s="3" t="s">
@@ -1519,7 +1666,9 @@
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="A12" s="3" t="s">
@@ -1537,7 +1686,9 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="A13" s="3" t="s">
@@ -1555,7 +1706,9 @@
       <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18">
       <c r="A14" s="3" t="s">
@@ -1573,7 +1726,9 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18">
       <c r="A15" s="3" t="s">
@@ -1591,7 +1746,9 @@
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18">
       <c r="A16" s="3" t="s">
@@ -1609,7 +1766,9 @@
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18">
       <c r="A17" s="3" t="s">
@@ -1627,7 +1786,9 @@
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="18">
       <c r="A18" s="3" t="s">
@@ -1645,7 +1806,9 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="18">
       <c r="A19" s="3" t="s">
@@ -1663,7 +1826,9 @@
       <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="18">
       <c r="A20" s="3" t="s">
@@ -1681,7 +1846,9 @@
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18">
       <c r="A21" s="3" t="s">
@@ -1699,7 +1866,9 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="3" t="s">
@@ -1717,7 +1886,9 @@
       <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18">
       <c r="A23" s="3" t="s">
@@ -1735,7 +1906,9 @@
       <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="18">
       <c r="A24" s="3" t="s">
@@ -1753,7 +1926,9 @@
       <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="18">
       <c r="A25" s="3" t="s">
@@ -1771,7 +1946,9 @@
       <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="18">
       <c r="A26" s="3" t="s">
@@ -1789,7 +1966,9 @@
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="18">
       <c r="A27" s="3" t="s">
@@ -1807,7 +1986,9 @@
       <c r="E27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="3" t="s">
@@ -1825,7 +2006,9 @@
       <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="18">
       <c r="A29" s="3" t="s">
@@ -1843,7 +2026,9 @@
       <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="18">
       <c r="A30" s="3" t="s">
@@ -1861,7 +2046,9 @@
       <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="18">
       <c r="A31" s="3" t="s">
@@ -1879,7 +2066,9 @@
       <c r="E31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="18">
       <c r="A32" s="3" t="s">
@@ -1897,7 +2086,9 @@
       <c r="E32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="18">
       <c r="A33" s="3" t="s">
@@ -1915,7 +2106,9 @@
       <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="18">
       <c r="A34" s="3" t="s">
@@ -1933,7 +2126,9 @@
       <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="18">
       <c r="A35" s="3" t="s">
@@ -1951,7 +2146,9 @@
       <c r="E35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="18">
       <c r="A36" s="3" t="s">
@@ -1969,7 +2166,9 @@
       <c r="E36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="12" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="18">
       <c r="A37" s="3" t="s">
@@ -1987,7 +2186,9 @@
       <c r="E37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="12" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="18">
       <c r="A38" s="3" t="s">
@@ -2005,7 +2206,9 @@
       <c r="E38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="18">
       <c r="A39" s="3" t="s">
@@ -2023,7 +2226,9 @@
       <c r="E39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="18">
       <c r="A40" s="3" t="s">
@@ -2041,7 +2246,9 @@
       <c r="E40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="18">
       <c r="A41" s="3" t="s">
@@ -2059,7 +2266,9 @@
       <c r="E41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="18">
       <c r="A42" s="3" t="s">
@@ -2077,7 +2286,9 @@
       <c r="E42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="18">
       <c r="A43" s="3" t="s">
@@ -2095,7 +2306,9 @@
       <c r="E43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="18">
       <c r="A44" s="3" t="s">
@@ -2113,11 +2326,14 @@
       <c r="E44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2139,9 +2355,9 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39" customWidth="1"/>
     <col min="12" max="12" width="44" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="35.6640625" hidden="1" customWidth="1"/>
@@ -2157,50 +2373,50 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="14"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="14"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -2219,12 +2435,12 @@
       <c r="G3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="3" t="s">
@@ -4194,32 +4410,32 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -4315,34 +4531,34 @@
       <c r="K4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>1.3671875E-2</v>
       </c>
-      <c r="M4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R4" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S4" s="17">
+      <c r="M4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S4" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="16">
         <v>0.10546875</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4380,34 +4596,34 @@
       <c r="K5" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P5" s="17">
+      <c r="L5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P5" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S5" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T5" s="17">
+      <c r="Q5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T5" s="16">
         <v>0.322265625</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4445,34 +4661,34 @@
       <c r="K6" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="M6" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N6" s="17">
+      <c r="M6" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N6" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>1.3671875E-2</v>
       </c>
-      <c r="P6" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="P6" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q6" s="16">
         <v>0.193359375</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>2.734375E-2</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="16">
         <v>0.431640625</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -4510,34 +4726,34 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="M7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R7" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S7" s="17">
+      <c r="M7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R7" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="16">
         <v>0.68309139830960874</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>0.79860324550939066</v>
       </c>
     </row>
@@ -4575,34 +4791,34 @@
       <c r="K8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>0.28008721081149762</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0.13735451952929029</v>
       </c>
-      <c r="N8" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O8" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="N8" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O8" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P8" s="16">
         <v>4.820698819057858E-3</v>
       </c>
-      <c r="Q8" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R8" s="17">
+      <c r="Q8" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R8" s="16">
         <v>5.6660923526288057E-3</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>5.6031935999342527E-3</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>3.7109375E-2</v>
       </c>
     </row>
@@ -4640,34 +4856,34 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>0.921875</v>
       </c>
-      <c r="M9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R9" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S9" s="17">
+      <c r="M9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S9" s="16">
         <v>2.734375E-2</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="16">
         <v>0.921875</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <v>6.6192579722193445E-2</v>
       </c>
     </row>
@@ -4705,34 +4921,34 @@
       <c r="K10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L10" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M10" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N10" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O10" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="L10" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P10" s="16">
         <v>2.4370603757179421E-2</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>0.33130483521613557</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>4.5287387111781548E-2</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>0.54029137460741983</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>0.25782034830084888</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>0.38316386365476429</v>
       </c>
     </row>
@@ -4770,34 +4986,34 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="M11" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N11" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O11" s="17">
+      <c r="M11" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O11" s="16">
         <v>7.9634892065499861E-3</v>
       </c>
-      <c r="P11" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q11" s="17">
+      <c r="P11" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q11" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>0.375</v>
       </c>
-      <c r="T11" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U11" s="17">
+      <c r="T11" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U11" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -4835,34 +5051,34 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T12" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U12" s="17">
+      <c r="L12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T12" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U12" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
     </row>
@@ -4900,34 +5116,34 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>1.21740699266922E-2</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>0.1363215648819037</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>0.1363215648819037</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <v>0.1363215648819037</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>0.30493703992157589</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>0.30493703992157589</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>0.30493703992157589</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>1</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="16">
         <v>1</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4965,34 +5181,34 @@
       <c r="K14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>0.6953125</v>
       </c>
-      <c r="M14" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N14" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O14" s="17">
+      <c r="M14" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O14" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="P14" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S14" s="17">
+      <c r="P14" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="16">
         <v>0.921875</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="16">
         <v>1.443282393884179E-2</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="16">
         <v>3.6535983605523639E-2</v>
       </c>
     </row>
@@ -5030,34 +5246,34 @@
       <c r="K15" s="3">
         <v>2E-3</v>
       </c>
-      <c r="L15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="L15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q15" s="16">
         <v>0.275390625</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="S15" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T15" s="17">
+      <c r="S15" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T15" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5095,34 +5311,34 @@
       <c r="K16" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>0.431640625</v>
       </c>
-      <c r="M16" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="M16" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N16" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="O16" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P16" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="O16" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q16" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="R16" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S16" s="17">
+      <c r="R16" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S16" s="16">
         <v>0.16015625</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="16">
         <v>0.275390625</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="16">
         <v>0.193359375</v>
       </c>
     </row>
@@ -5160,34 +5376,34 @@
       <c r="K17" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="L17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P17" s="16">
         <v>0.47553265959690127</v>
       </c>
-      <c r="Q17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R17" s="17">
+      <c r="Q17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R17" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="S17" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T17" s="17">
+      <c r="S17" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T17" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5225,34 +5441,34 @@
       <c r="K18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M18" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N18" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O18" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P18" s="17">
+      <c r="L18" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P18" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="16">
         <v>1.953125E-2</v>
       </c>
-      <c r="T18" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U18" s="17">
+      <c r="T18" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U18" s="16">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -5290,34 +5506,34 @@
       <c r="K19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="16">
         <v>5.859375E-3</v>
       </c>
-      <c r="M19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R19" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S19" s="17">
+      <c r="M19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R19" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S19" s="16">
         <v>4.8828125E-2</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="16">
         <v>0.193359375</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="16">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -5355,34 +5571,34 @@
       <c r="K20" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R20" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S20" s="17">
+      <c r="L20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R20" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S20" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="16">
         <v>0.16015625</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="16">
         <v>0.431640625</v>
       </c>
     </row>
@@ -5420,34 +5636,34 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>0.6953125</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="N21" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O21" s="17">
+      <c r="N21" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O21" s="16">
         <v>1.953125E-2</v>
       </c>
-      <c r="P21" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R21" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S21" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T21" s="17">
+      <c r="P21" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R21" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S21" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T21" s="16">
         <v>5.21723028037114E-2</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5485,34 +5701,34 @@
       <c r="K22" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>0.431640625</v>
       </c>
-      <c r="M22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P22" s="17">
+      <c r="M22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P22" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="Q22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T22" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U22" s="17">
+      <c r="Q22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T22" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U22" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5550,34 +5766,34 @@
       <c r="K23" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R23" s="17">
+      <c r="L23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R23" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="S23" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T23" s="17">
+      <c r="S23" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T23" s="16">
         <v>1</v>
       </c>
-      <c r="U23" s="17">
+      <c r="U23" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5615,34 +5831,34 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T24" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U24" s="17">
+      <c r="L24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T24" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U24" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
     </row>
@@ -5680,34 +5896,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="M25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T25" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U25" s="17">
+      <c r="M25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T25" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U25" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5745,34 +5961,34 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T26" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U26" s="17">
+      <c r="L26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T26" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U26" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -5810,34 +6026,34 @@
       <c r="K27" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M27" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N27" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O27" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P27" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q27" s="17">
+      <c r="L27" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P27" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q27" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="16">
         <v>0.193359375</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="16">
         <v>0.16015625</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="16">
         <v>0.10546875</v>
       </c>
     </row>
@@ -5875,34 +6091,34 @@
       <c r="K28" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q28" s="17">
+      <c r="L28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q28" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="R28" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S28" s="17">
+      <c r="R28" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S28" s="16">
         <v>2.734375E-2</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="16">
         <v>0.431640625</v>
       </c>
     </row>
@@ -5940,34 +6156,34 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="16">
         <v>3.6049295579747211E-2</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>0.1026940116086453</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="O29" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P29" s="17">
+      <c r="O29" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P29" s="16">
         <v>0.44220605952618691</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="16">
         <v>3.1641777385979279E-2</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="16">
         <v>1.057158882833038E-2</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="16">
         <v>7.8416715589014648E-3</v>
       </c>
-      <c r="T29" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U29" s="17">
+      <c r="T29" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U29" s="16">
         <v>2.063755824397218E-2</v>
       </c>
     </row>
@@ -6005,34 +6221,34 @@
       <c r="K30" s="3">
         <v>2E-3</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="16">
         <v>1.953125E-2</v>
       </c>
-      <c r="M30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T30" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U30" s="17">
+      <c r="M30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T30" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U30" s="16">
         <v>8.3984375E-2</v>
       </c>
     </row>
@@ -6070,34 +6286,34 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="16">
         <v>3.6049295579747211E-2</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>7.6009432566644646E-3</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="16">
         <v>0.44399437602300951</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="16">
         <v>6.6369129258750145E-2</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="16">
         <v>7.6133011608586376E-2</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="16">
         <v>0.4921875</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="16">
         <v>0.5405548641319784</v>
       </c>
-      <c r="S31" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T31" s="17">
+      <c r="S31" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T31" s="16">
         <v>5.7930454285468717E-3</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="16">
         <v>0.5405548641319784</v>
       </c>
     </row>
@@ -6135,34 +6351,34 @@
       <c r="K32" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="16">
         <v>1.3671875E-2</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="16">
         <v>0.16015625</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="16">
         <v>0.35895143585262629</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="16">
         <v>0.76953125</v>
       </c>
-      <c r="R32" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S32" s="17">
+      <c r="R32" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S32" s="16">
         <v>0.625</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="16">
         <v>8.3984375E-2</v>
       </c>
-      <c r="U32" s="17">
+      <c r="U32" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6200,34 +6416,34 @@
       <c r="K33" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="16">
         <v>0.431640625</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <v>0.375</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>4.8828125E-2</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="16">
         <v>0.130859375</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="16">
         <v>5.859375E-3</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="S33" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T33" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U33" s="17">
+      <c r="S33" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T33" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U33" s="16">
         <v>0.556640625</v>
       </c>
     </row>
@@ -6265,34 +6481,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S34" s="17">
+      <c r="L34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S34" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="T34" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U34" s="17">
+      <c r="T34" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U34" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6330,34 +6546,34 @@
       <c r="K35" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="M35" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N35" s="17">
+      <c r="M35" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N35" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="O35" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P35" s="17">
+      <c r="O35" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P35" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="R35" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S35" s="17">
+      <c r="R35" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S35" s="16">
         <v>9.765625E-3</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="16">
         <v>0.921875</v>
       </c>
-      <c r="U35" s="17">
+      <c r="U35" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6395,34 +6611,34 @@
       <c r="K36" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S36" s="17">
+      <c r="L36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S36" s="16">
         <v>1.953125E-2</v>
       </c>
-      <c r="T36" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U36" s="17">
+      <c r="T36" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U36" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6460,34 +6676,34 @@
       <c r="K37" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T37" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U37" s="17">
+      <c r="L37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T37" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U37" s="16">
         <v>9.765625E-3</v>
       </c>
     </row>
@@ -6525,34 +6741,34 @@
       <c r="K38" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N38" s="17">
+      <c r="L38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N38" s="16">
         <v>0.16015625</v>
       </c>
-      <c r="O38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S38" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T38" s="17">
+      <c r="O38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S38" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T38" s="16">
         <v>0.845703125</v>
       </c>
-      <c r="U38" s="17">
+      <c r="U38" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6590,34 +6806,34 @@
       <c r="K39" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L39" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M39" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N39" s="17">
+      <c r="L39" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M39" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N39" s="16">
         <v>5.859375E-3</v>
       </c>
-      <c r="O39" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="O39" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P39" s="16">
         <v>0.130859375</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="16">
         <v>1.3671875E-2</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="16">
         <v>3.7109375E-2</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="16">
         <v>2.734375E-2</v>
       </c>
-      <c r="T39" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U39" s="17">
+      <c r="T39" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U39" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6655,34 +6871,34 @@
       <c r="K40" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P40" s="17">
+      <c r="L40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P40" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R40" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S40" s="17">
+      <c r="Q40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R40" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S40" s="16">
         <v>0.130859375</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T40" s="16">
         <v>0.76953125</v>
       </c>
-      <c r="U40" s="17">
+      <c r="U40" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6720,34 +6936,34 @@
       <c r="K41" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q41" s="17">
+      <c r="L41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q41" s="16">
         <v>0.10546875</v>
       </c>
-      <c r="R41" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S41" s="17">
+      <c r="R41" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S41" s="16">
         <v>5.9215370241487084E-3</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="16">
         <v>1.3671875E-2</v>
       </c>
-      <c r="U41" s="17">
+      <c r="U41" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6785,34 +7001,34 @@
       <c r="K42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L42" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M42" s="17">
+      <c r="L42" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M42" s="16">
         <v>0.193359375</v>
       </c>
-      <c r="N42" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O42" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="N42" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O42" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P42" s="16">
         <v>0.4921875</v>
       </c>
-      <c r="Q42" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R42" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S42" s="17">
+      <c r="Q42" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R42" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S42" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T42" s="16">
         <v>3.90625E-3</v>
       </c>
-      <c r="U42" s="17">
+      <c r="U42" s="16">
         <v>0.625</v>
       </c>
     </row>
@@ -6850,34 +7066,34 @@
       <c r="K43" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T43" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U43" s="17">
+      <c r="L43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T43" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U43" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6915,34 +7131,34 @@
       <c r="K44" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P44" s="17">
+      <c r="L44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P44" s="16">
         <v>1.953125E-2</v>
       </c>
-      <c r="Q44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S44" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T44" s="17">
+      <c r="Q44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S44" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T44" s="16">
         <v>5.859375E-3</v>
       </c>
-      <c r="U44" s="17">
+      <c r="U44" s="16">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -6980,63 +7196,63 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="M45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="N45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="O45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="P45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="R45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="S45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="T45" s="17">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="U45" s="17">
+      <c r="L45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="T45" s="16">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U45" s="16">
         <v>5.859375E-3</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="18">
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <f>AVERAGE(B4:B45)</f>
         <v>0.96438095238095245</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15">
         <f>AVERAGE(D4:D45)</f>
         <v>0.9671428571428573</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16">
+      <c r="E46" s="15"/>
+      <c r="F46" s="15">
         <f>AVERAGE(F4:F45)</f>
         <v>0.96800000000000019</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16">
+      <c r="G46" s="15"/>
+      <c r="H46" s="15">
         <f>AVERAGE(H4:H45)</f>
         <v>0.97050000000000003</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
         <f>AVERAGE(J4:J45)</f>
         <v>0.97011904761904744</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7088,36 +7304,36 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:61" s="8" customFormat="1" ht="22">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:61" s="8" customFormat="1" ht="22">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -7213,22 +7429,22 @@
       <c r="M4" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>0.89831733703613281</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <v>1.33514404296875E-4</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="16">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="16">
         <v>3.9989471435546882E-2</v>
       </c>
       <c r="T4" s="5"/>
@@ -7314,22 +7530,22 @@
       <c r="M5" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>1.2079238891601561E-2</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>1.3616561889648439E-2</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <v>8.30841064453125E-3</v>
       </c>
       <c r="T5" s="5"/>
@@ -7415,22 +7631,22 @@
       <c r="M6" s="3">
         <v>0.185</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>1.531219482421875E-2</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>6.389617919921875E-3</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>5.855560302734375E-4</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>0.64765548706054688</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>0.1053981781005859</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>0.75616645812988281</v>
       </c>
       <c r="T6" s="5"/>
@@ -7516,22 +7732,22 @@
       <c r="M7" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>0.45237541198730469</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>0.23956229205866381</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>0.23051261901855469</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>5.9367211856653293E-2</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>3.6544952745071801E-2</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>0.78412628173828125</v>
       </c>
       <c r="T7" s="5"/>
@@ -7617,22 +7833,22 @@
       <c r="M8" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>0.82265402861233783</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <v>0.98509949564105403</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>9.7307205200195312E-2</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>0.22440415173796599</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>4.1888066490352087E-2</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>0.45237541198730469</v>
       </c>
       <c r="T8" s="5"/>
@@ -7718,22 +7934,22 @@
       <c r="M9" s="3">
         <v>0.04</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>0.86948776245117188</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <v>0.2161674499511719</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>4.85992431640625E-3</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>0.81235504150390625</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>4.2209625244140616E-3</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <v>0.2024497985839844</v>
       </c>
       <c r="T9" s="5"/>
@@ -7819,22 +8035,22 @@
       <c r="M10" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>0.1139869689941406</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>0.70118141174316406</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>0.1230926513671875</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>0.1230926513671875</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>2.9575347900390622E-2</v>
       </c>
       <c r="T10" s="5"/>
@@ -7920,22 +8136,22 @@
       <c r="M11" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>0.43043327331542969</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>0.29425239562988281</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>0.1768531799316406</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>0.34881019592285162</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>0.18934822082519531</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>0.14290618896484381</v>
       </c>
       <c r="T11" s="5"/>
@@ -8021,22 +8237,22 @@
       <c r="M12" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>0.16495704650878909</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>0.86948776245117188</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>0.1850684290365544</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <v>4.76837158203125E-5</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <v>7.076263427734375E-4</v>
       </c>
       <c r="T12" s="5"/>
@@ -8122,22 +8338,22 @@
       <c r="M13" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>0.59405373037512788</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <v>0.52547277692961758</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>8.2569291532479022E-2</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>3.4539241446578862E-2</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>9.5691731570594321E-5</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>7.2956085205078116E-3</v>
       </c>
       <c r="T13" s="5"/>
@@ -8223,22 +8439,22 @@
       <c r="M14" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>0.15364646911621091</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <v>0.18934822082519531</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>0.54587554931640625</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>1</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>0.23051261901855469</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="16">
         <v>0.1230926513671875</v>
       </c>
       <c r="T14" s="5"/>
@@ -8324,22 +8540,22 @@
       <c r="M15" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="16">
         <v>0.1213082284773904</v>
       </c>
       <c r="T15" s="5"/>
@@ -8425,22 +8641,22 @@
       <c r="M16" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>1.049041748046875E-4</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="16">
         <v>0.16495704650878909</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="16">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="16">
         <v>0.34881019592285162</v>
       </c>
       <c r="T16" s="5"/>
@@ -8526,22 +8742,22 @@
       <c r="M17" s="3">
         <v>0.36</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <v>5.8258056640625E-2</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="16">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="16">
         <v>0.1139869689941406</v>
       </c>
       <c r="T17" s="5"/>
@@ -8627,22 +8843,22 @@
       <c r="M18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="16">
         <v>0.23051261901855469</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="16">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="16">
         <v>8.30841064453125E-3</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="16">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="16">
         <v>0.40909767150878912</v>
       </c>
       <c r="T18" s="5"/>
@@ -8728,22 +8944,22 @@
       <c r="M19" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="16">
         <v>0.70118141174316406</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <v>7.58514404296875E-2</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="16">
         <v>0.57059669494628906</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="16">
         <v>2.1484375E-2</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="16">
         <v>0.2161674499511719</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="16">
         <v>0.43043327331542969</v>
       </c>
       <c r="T19" s="5"/>
@@ -8829,22 +9045,22 @@
       <c r="M20" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="16">
         <v>2.3950576782226559E-2</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <v>7.2956085205078116E-3</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="16">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="16">
         <v>0.1139869689941406</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="16">
         <v>2.3950576782226559E-2</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="16">
         <v>8.9694976806640625E-2</v>
       </c>
       <c r="T20" s="5"/>
@@ -8930,22 +9146,22 @@
       <c r="M21" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <v>0.26109886169433588</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="16">
         <v>0.34881019592285162</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="16">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <v>0.75616645812988281</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="16">
         <v>2.613067626953125E-4</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="16">
         <v>1.9855499267578121E-3</v>
       </c>
       <c r="T21" s="5"/>
@@ -9031,22 +9247,22 @@
       <c r="M22" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="16">
         <v>0.2454872131347656</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="16">
         <v>0.18934822082519531</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="16">
         <v>1.049041748046875E-4</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="16">
         <v>0.36827659606933588</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="16">
         <v>3.948211669921875E-4</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="16">
         <v>1.0166168212890621E-3</v>
       </c>
       <c r="T22" s="5"/>
@@ -9132,22 +9348,22 @@
       <c r="M23" s="3">
         <v>0.222</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="16">
         <v>0.78412628173828125</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="16">
         <v>0.98543548583984375</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="16">
         <v>1.3616561889648439E-2</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="16">
         <v>0.64765548706054688</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="16">
         <v>5.316925048828125E-2</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="16">
         <v>7.2956085205078116E-3</v>
       </c>
       <c r="T23" s="5"/>
@@ -9233,22 +9449,22 @@
       <c r="M24" s="3">
         <v>0.01</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="16">
         <v>6.389617919921875E-3</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="16">
         <v>0.16495704650878909</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="16">
         <v>1.209259033203125E-3</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="16">
         <v>0.75616645812988281</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="16">
         <v>8.50677490234375E-4</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="16">
         <v>3.65447998046875E-3</v>
       </c>
       <c r="T24" s="5"/>
@@ -9334,22 +9550,22 @@
       <c r="M25" s="3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="16">
         <v>0.78412628173828125</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="16">
         <v>0.81235504150390625</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="16">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="16">
         <v>0.62151336669921875</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="16">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="16">
         <v>4.76837158203125E-5</v>
       </c>
       <c r="T25" s="5"/>
@@ -9435,22 +9651,22 @@
       <c r="M26" s="3">
         <v>0.153</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="16">
         <v>0.31179428100585938</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="16">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="16">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="16">
         <v>1.923370361328125E-2</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="16">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T26" s="5"/>
@@ -9536,22 +9752,22 @@
       <c r="M27" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="16">
         <v>1.7181396484375E-2</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="16">
         <v>0.89831733703613281</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="16">
         <v>0.29425239562988281</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>1.923370361328125E-2</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="16">
         <v>0.956329345703125</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="16">
         <v>0.40909767150878912</v>
       </c>
       <c r="T27" s="5"/>
@@ -9637,22 +9853,22 @@
       <c r="M28" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <v>0.2161674499511719</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="16">
         <v>3.948211669921875E-4</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="16">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="16">
         <v>0.13272666931152341</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="16">
         <v>8.20159912109375E-5</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="16">
         <v>4.2209625244140616E-3</v>
       </c>
       <c r="T28" s="5"/>
@@ -9738,22 +9954,22 @@
       <c r="M29" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <v>0.1768531799316406</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="16">
         <v>4.5773951687468707E-2</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="16">
         <v>3.1528472900390621E-3</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="16">
         <v>0.34110556499699263</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="16">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="16">
         <v>5.580902099609375E-3</v>
       </c>
       <c r="T29" s="5"/>
@@ -9839,22 +10055,22 @@
       <c r="M30" s="3">
         <v>0.106</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="16">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="16">
         <v>0.84082221984863281</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="16">
         <v>3.6233901977539062E-2</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="16">
         <v>1.2079238891601561E-2</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="16">
         <v>0.52167320251464844</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="16">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T30" s="5"/>
@@ -9940,22 +10156,22 @@
       <c r="M31" s="3">
         <v>0.1</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="16">
         <v>5.316925048828125E-2</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="16">
         <v>1.33514404296875E-5</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="16">
         <v>1.209259033203125E-3</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="16">
         <v>1.33514404296875E-4</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="16">
         <v>0.54587554931640625</v>
       </c>
       <c r="T31" s="5"/>
@@ -10041,22 +10257,22 @@
       <c r="M32" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="16">
         <v>1.9855499267578121E-3</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="16">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="16">
         <v>0.13272666931152341</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="16">
         <v>2.712249755859375E-3</v>
       </c>
       <c r="T32" s="5"/>
@@ -10142,22 +10358,22 @@
       <c r="M33" s="3">
         <v>0.111</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>1.7181396484375E-2</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="16">
         <v>1.0166168212890621E-3</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="16">
         <v>5.7220458984375E-6</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="16">
         <v>0.1139869689941406</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="16">
         <v>7.076263427734375E-4</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="16">
         <v>3.6233901977539062E-2</v>
       </c>
       <c r="T33" s="5"/>
@@ -10243,22 +10459,22 @@
       <c r="M34" s="3">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="16">
         <v>2.9575347900390622E-2</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="16">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="16">
         <v>3.1528472900390621E-3</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="16">
         <v>3.62396240234375E-5</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="16">
         <v>8.2550048828125E-2</v>
       </c>
       <c r="T34" s="5"/>
@@ -10344,22 +10560,22 @@
       <c r="M35" s="3">
         <v>0.03</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="16">
         <v>0.13272666931152341</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="16">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="16">
         <v>8.9694976806640625E-2</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="16">
         <v>0.54587554931640625</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="16">
         <v>0.29425239562988281</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="16">
         <v>0.38837623596191412</v>
       </c>
       <c r="T35" s="5"/>
@@ -10445,22 +10661,22 @@
       <c r="M36" s="3">
         <v>0.182</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="16">
         <v>0.1139869689941406</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="16">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="16">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="16">
         <v>3.65447998046875E-3</v>
       </c>
-      <c r="R36" s="17">
+      <c r="R36" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="16">
         <v>0.18934822082519531</v>
       </c>
       <c r="T36" s="5"/>
@@ -10546,22 +10762,22 @@
       <c r="M37" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="16">
         <v>0.26109886169433588</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="16">
         <v>0.75616645812988281</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="16">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="16">
         <v>0.67422294616699219</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="16">
         <v>9.5367431640625E-6</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="16">
         <v>3.223419189453125E-4</v>
       </c>
       <c r="T37" s="5"/>
@@ -10647,22 +10863,22 @@
       <c r="M38" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="16">
         <v>0.72850608825683594</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="16">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="16">
         <v>0.31179428100585938</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="16">
         <v>9.4356536865234375E-3</v>
       </c>
-      <c r="R38" s="17">
+      <c r="R38" s="16">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="16">
         <v>0.54587554931640625</v>
       </c>
       <c r="T38" s="5"/>
@@ -10748,22 +10964,22 @@
       <c r="M39" s="3">
         <v>0.03</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="16">
         <v>9.4356536865234375E-3</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="16">
         <v>2.3250579833984379E-3</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="16">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="16">
         <v>0.14290618896484381</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="16">
         <v>2.712249755859375E-3</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="16">
         <v>0.26109886169433588</v>
       </c>
       <c r="T39" s="5"/>
@@ -10849,22 +11065,22 @@
       <c r="M40" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="16">
         <v>4.8440933227539062E-2</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="16">
         <v>0.2024497985839844</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="16">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="16">
         <v>2.6641845703125E-2</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="16">
         <v>1.689910888671875E-3</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="16">
         <v>2.613067626953125E-4</v>
       </c>
       <c r="T40" s="5"/>
@@ -10950,22 +11166,22 @@
       <c r="M41" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="16">
         <v>0.1768531799316406</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="16">
         <v>0.29425239562988281</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="16">
         <v>4.825592041015625E-4</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="16">
         <v>0.1768531799316406</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="16">
         <v>2.6702880859375E-5</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="16">
         <v>0.27735519409179688</v>
       </c>
       <c r="T41" s="5"/>
@@ -11051,22 +11267,22 @@
       <c r="M42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="16">
         <v>5.580902099609375E-3</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="16">
         <v>2.09808349609375E-4</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="16">
         <v>0.2454872131347656</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="16">
         <v>0.70118141174316406</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="16">
         <v>1.531219482421875E-2</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="16">
         <v>6.389617919921875E-3</v>
       </c>
       <c r="T42" s="5"/>
@@ -11152,22 +11368,22 @@
       <c r="M43" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="16">
         <v>0.47490501403808588</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="16">
         <v>7.2956085205078116E-3</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="16">
         <v>9.7307205200195312E-2</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="S43" s="17">
+      <c r="S43" s="16">
         <v>3.814697265625E-6</v>
       </c>
       <c r="T43" s="5"/>
@@ -11253,22 +11469,22 @@
       <c r="M44" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="16">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="16">
         <v>3.9989471435546882E-2</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="16">
         <v>1.9073486328125E-5</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="16">
         <v>1.209259033203125E-3</v>
       </c>
       <c r="T44" s="5"/>
@@ -11354,22 +11570,22 @@
       <c r="M45" s="3">
         <v>0.187</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="16">
         <v>0.18934822082519531</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="16">
         <v>6.29425048828125E-5</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="16">
         <v>1.9073486328125E-6</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="16">
         <v>1.33514404296875E-5</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="16">
         <v>3.814697265625E-6</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="16">
         <v>2.3950576782226559E-2</v>
       </c>
       <c r="T45" s="5"/>
@@ -11416,51 +11632,51 @@
       <c r="BI45" s="5"/>
     </row>
     <row r="46" spans="1:61" ht="18">
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <f>AVERAGE(B4:B45)</f>
         <v>0.92223809523809508</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <f t="shared" ref="C46:E46" si="0">AVERAGE(C4:C45)</f>
         <v>5.6190476190476207E-3</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="17">
         <f t="shared" si="0"/>
         <v>0.9598809523809525</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="17">
         <f t="shared" si="0"/>
         <v>4.714285714285716E-3</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <f>AVERAGE(F4:F45)</f>
         <v>0.96585714285714297</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <f>AVERAGE(G4:G45)</f>
         <v>1.0547619047619049E-2</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <f t="shared" ref="H46:M46" si="1">AVERAGE(H4:H45)</f>
         <v>0.95430952380952372</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <f t="shared" si="1"/>
         <v>2.7642857142857143E-2</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="15">
         <f t="shared" si="1"/>
         <v>0.92900000000000016</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <f t="shared" si="1"/>
         <v>6.6595238095238082E-2</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="15">
         <f t="shared" si="1"/>
         <v>0.90088095238095245</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="15">
         <f t="shared" si="1"/>
         <v>0.10176190476190476</v>
       </c>
@@ -11611,7 +11827,7 @@
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1">
@@ -11620,20 +11836,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="22" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="22" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -11649,7 +11865,7 @@
       <c r="F3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -11672,7 +11888,7 @@
       <c r="F4" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11695,7 +11911,7 @@
       <c r="F5" s="5">
         <v>4.7000000000000042E-2</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11718,7 +11934,7 @@
       <c r="F6" s="5">
         <v>0.16</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11741,7 +11957,7 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.431640625</v>
       </c>
     </row>
@@ -11764,7 +11980,7 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.94341578679537386</v>
       </c>
     </row>
@@ -11787,7 +12003,7 @@
       <c r="F9" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11810,7 +12026,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>0.47525380583898241</v>
       </c>
     </row>
@@ -11833,7 +12049,7 @@
       <c r="F11" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11856,7 +12072,7 @@
       <c r="F12" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11879,7 +12095,7 @@
       <c r="F13" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11902,7 +12118,7 @@
       <c r="F14" s="5">
         <v>2.0000000000000021E-2</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11925,7 +12141,7 @@
       <c r="F15" s="5">
         <v>-1.0000000000000011E-2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -11948,7 +12164,7 @@
       <c r="F16" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>0.76953125</v>
       </c>
     </row>
@@ -11971,7 +12187,7 @@
       <c r="F17" s="5">
         <v>-7.0000000000000062E-3</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>3.90625E-3</v>
       </c>
     </row>
@@ -11994,7 +12210,7 @@
       <c r="F18" s="5">
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12017,7 +12233,7 @@
       <c r="F19" s="5">
         <v>3.0000000000000031E-3</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>5.859375E-3</v>
       </c>
     </row>
@@ -12040,7 +12256,7 @@
       <c r="F20" s="5">
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12063,7 +12279,7 @@
       <c r="F21" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12086,7 +12302,7 @@
       <c r="F22" s="5">
         <v>1.7000000000000019E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12109,7 +12325,7 @@
       <c r="F23" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12132,7 +12348,7 @@
       <c r="F24" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12155,7 +12371,7 @@
       <c r="F25" s="5">
         <v>5.0000000000000036E-3</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12178,7 +12394,7 @@
       <c r="F26" s="5">
         <v>4.0000000000000044E-3</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12201,7 +12417,7 @@
       <c r="F27" s="5">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12224,7 +12440,7 @@
       <c r="F28" s="5">
         <v>-1.0000000000000011E-3</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12247,7 +12463,7 @@
       <c r="F29" s="5">
         <v>1.0000000000000011E-2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12270,7 +12486,7 @@
       <c r="F30" s="5">
         <v>-1.0000000000000011E-3</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>0.921875</v>
       </c>
     </row>
@@ -12293,7 +12509,7 @@
       <c r="F31" s="5">
         <v>2.8000000000000021E-2</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12316,7 +12532,7 @@
       <c r="F32" s="5">
         <v>-3.0000000000000031E-3</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>3.7109375E-2</v>
       </c>
     </row>
@@ -12339,7 +12555,7 @@
       <c r="F33" s="5">
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12362,7 +12578,7 @@
       <c r="F34" s="5">
         <v>1.8000000000000019E-2</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12385,7 +12601,7 @@
       <c r="F35" s="5">
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12408,7 +12624,7 @@
       <c r="F36" s="5">
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12431,7 +12647,7 @@
       <c r="F37" s="5">
         <v>3.5999999999999921E-2</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12454,7 +12670,7 @@
       <c r="F38" s="5">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12477,7 +12693,7 @@
       <c r="F39" s="5">
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12500,7 +12716,7 @@
       <c r="F40" s="5">
         <v>4.0000000000000044E-3</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12523,7 +12739,7 @@
       <c r="F41" s="5">
         <v>1.300000000000001E-2</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12546,7 +12762,7 @@
       <c r="F42" s="5">
         <v>1.300000000000001E-2</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12569,7 +12785,7 @@
       <c r="F43" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="20">
         <v>0.322265625</v>
       </c>
     </row>
@@ -12592,7 +12808,7 @@
       <c r="F44" s="5">
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="20">
         <v>5.859375E-3</v>
       </c>
     </row>
@@ -12615,7 +12831,7 @@
       <c r="F45" s="5">
         <v>1.4000000000000011E-2</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="20">
         <v>1.953125E-3</v>
       </c>
     </row>
@@ -12640,7 +12856,7 @@
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="6" width="29.33203125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="29.33203125" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -13538,40 +13754,40 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="22">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="26"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="22">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -15636,36 +15852,36 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -17480,48 +17696,48 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="5">
@@ -17550,13 +17766,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="5">
@@ -17585,13 +17801,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="5">
@@ -17620,13 +17836,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="5">
@@ -17655,13 +17871,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="5">
@@ -17690,13 +17906,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="5">
@@ -17725,13 +17941,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="5">
@@ -17760,13 +17976,13 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="5">
@@ -17795,13 +18011,13 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="5">
@@ -17830,13 +18046,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="5">
@@ -17865,13 +18081,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="5">
@@ -17900,13 +18116,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="5">
@@ -17935,13 +18151,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="5">
@@ -17970,13 +18186,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="5">
@@ -18005,13 +18221,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="5">
